--- a/Figures/supplementary_data_I.xlsx
+++ b/Figures/supplementary_data_I.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="D2" t="n">
         <v>1.87</v>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="D3" t="n">
         <v>3.39</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="D5" t="n">
         <v>13.64</v>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -639,67 +639,67 @@
       <c r="A11" s="2" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Charcoal</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Bitumen</t>
+          <t>Chemicals nec</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Charcoal</t>
+          <t>Coal Tar</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.22</v>
+        <v>0.93</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Chemicals nec</t>
+          <t>Coking Coal</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.27</v>
+        <v>0.48</v>
       </c>
       <c r="D14" t="n">
-        <v>2.3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Coal Tar</t>
+          <t>Electricity by solar thermal</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.92</v>
+        <v>0.39</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -709,123 +709,123 @@
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Coking Coal</t>
+          <t>Electricity by tide, wave, ocean</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Construction work (45)</t>
+          <t>Fabricated metal products, except machinery and equipment (28)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="D17" t="n">
-        <v>1.09</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Electricity by solar thermal</t>
+          <t>Glass and glass products</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Electricity by tide, wave, ocean</t>
+          <t>Liquefied Petroleum Gases (LPG)</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Fabricated metal products, except machinery and equipment (28)</t>
+          <t>Machinery and equipment n.e.c. (29)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="D20" t="n">
-        <v>0.85</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Glass and glass products</t>
+          <t>Naphtha</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Liquefied Petroleum Gases (LPG)</t>
+          <t>Natural Gas Liquids</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.33</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Machinery and equipment n.e.c. (29)</t>
+          <t>Natural gas and services related to natural gas extraction, excluding surveying</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="D23" t="n">
-        <v>0.19</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Naphtha</t>
+          <t>Non-specified Petroleum Products</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="D24" t="n">
         <v>0.01</v>
@@ -835,11 +835,11 @@
       <c r="A25" s="2" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Natural Gas Liquids</t>
+          <t>Other Hydrocarbons</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -849,249 +849,178 @@
       <c r="A26" s="2" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Natural gas and services related to natural gas extraction, excluding surveying</t>
+          <t>Other business services (74)</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="D26" t="n">
-        <v>0.61</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Non-specified Petroleum Products</t>
+          <t>Paraffin Waxes</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6</v>
+        <v>0.26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Other Hydrocarbons</t>
+          <t>Petroleum Coke</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0.21</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Other business services (74)</t>
+          <t>Products of forestry, logging and related services (02)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="D29" t="n">
-        <v>2.13</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n"/>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Paraffin Waxes</t>
+          <t>Refinery Feedstocks</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.27</v>
+        <v>0.83</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
+      <c r="A31" s="3" t="n"/>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Petroleum Coke</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>0.21</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>CPI: 06 - Health</t>
+        </is>
+      </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Products of forestry, logging and related services (02)</t>
+          <t>Chemicals nec</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9399999999999999</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n"/>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>CPI: 07 - Transport</t>
+        </is>
+      </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Real estate services (70)</t>
+          <t>Air transport services (62)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="D33" t="n">
-        <v>55.8</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n"/>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>CPI: 09 - Recreation and culture</t>
+        </is>
+      </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Refinery Feedstocks</t>
+          <t>Pulp</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n"/>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>CPI: 10 - Education</t>
+        </is>
+      </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Retail  trade services, except of motor vehicles and motorcycles; repair services of personal and household goods (52)</t>
+          <t>Education services (80)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="D35" t="n">
-        <v>2.08</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>CPI: 06 - Health</t>
-        </is>
-      </c>
+      <c r="A36" s="3" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Chemicals nec</t>
+          <t>Retail  trade services, except of motor vehicles and motorcycles; repair services of personal and household goods (52)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="D36" t="n">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>Public administration and defence services; compulsory social security services (75)</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>CPI: 07 - Transport</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>Air transport services (62)</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D38" t="n">
-        <v>7.59</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>CPI: 09 - Recreation and culture</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>Pulp</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>CPI: 10 - Education</t>
-        </is>
-      </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>Education services (80)</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="D40" t="n">
-        <v>84.8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="n"/>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>Retail  trade services, except of motor vehicles and motorcycles; repair services of personal and household goods (52)</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D41" t="n">
         <v>1.9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A9:A31"/>
+    <mergeCell ref="A35:A36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2600,710 +2529,710 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.486883968089183e-05</v>
+        <v>0.02168125507453717</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001503039843425221</v>
+        <v>0.004749702168345172</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04100072635009031</v>
+        <v>0.05429419025619837</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1892623378876054</v>
+        <v>0.1935548488547761</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09288141172167505</v>
+        <v>0.09426632959997383</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005635977925038153</v>
+        <v>0.03010960856399494</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4401541509361848</v>
+        <v>0.4437541651468201</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04256010698770137</v>
+        <v>0.0426982579798626</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.005087755580200561</v>
+        <v>-0.001372820684010106</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.001961886894050162</v>
+        <v>0.007110923541433666</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.006949415348530591</v>
+        <v>-0.003033558453682824</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1111268121304712</v>
+        <v>0.1235210737956978</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1833382943315112</v>
+        <v>0.1756215141935075</v>
       </c>
       <c r="O4" t="n">
-        <v>3.276365214659156</v>
+        <v>3.299004653483419</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5348339014229638</v>
+        <v>0.5347234767883317</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05979988056289353</v>
+        <v>0.06473239754483072</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.0112472426022666</v>
+        <v>-0.01406523487950335</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04765708193826526</v>
+        <v>0.05099969098423619</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03327043611950292</v>
+        <v>0.04671997998397003</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.03564326664470251</v>
+        <v>-0.0312837989466301</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.0271017401894363</v>
+        <v>-0.0224305862597381</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002084976266061995</v>
+        <v>0.04453066727893328</v>
       </c>
       <c r="X4" t="n">
-        <v>0.004163030513691323</v>
+        <v>0.006624499152120221</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07221925676143985</v>
+        <v>0.08008774448658348</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.02416370027700177</v>
+        <v>-0.02227786762003181</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1018863332938515</v>
+        <v>0.1160178774879954</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.9210938088701636</v>
+        <v>0.9262720967540924</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.01002661181286283</v>
+        <v>-0.008711844809987419</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.08328705516772325</v>
+        <v>-0.0814471654782396</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.02539577636678687</v>
+        <v>-0.02391767399863636</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.005826100855954511</v>
+        <v>-0.003002932166406807</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.4343371963211312</v>
+        <v>0.4348420976493724</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.04083513618184993</v>
+        <v>0.04340863455200632</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.008765723859177975</v>
+        <v>0.0106361867033088</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.1144909116668218</v>
+        <v>-0.1093624079306478</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.004668649829789966</v>
+        <v>-0.003401695529426086</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.087824415122493</v>
+        <v>-0.08600040738525028</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.01172811988644164</v>
+        <v>0.01435392358727606</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.05363050623923617</v>
+        <v>-0.05245040565572943</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.4401771535314051</v>
+        <v>0.4395612658829507</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.002342586302703887</v>
+        <v>0.00472740481310575</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.05061143358424104</v>
+        <v>-0.0429552561049799</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.5996755861441074</v>
+        <v>0.6004876676998312</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.01172917965813054</v>
+        <v>-0.01045940701896325</v>
       </c>
       <c r="AT4" t="n">
-        <v>22.14690635402925</v>
+        <v>22.15917497653636</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.1221175108861375</v>
+        <v>-8.307298623262011e+17</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.3065050999363456</v>
+        <v>0.3150676592662518</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.848124734920116</v>
+        <v>0.8459321008776869</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01807910342643956</v>
+        <v>0.01243816691791502</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.152118660264033</v>
+        <v>0.15207800292632</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.08283986296437548</v>
+        <v>0.08416327101447527</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.09700834467437923</v>
+        <v>0.09809827188854391</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.04761697196096904</v>
+        <v>0.04924072323955459</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
-        <v>0.3073807634893354</v>
+        <v>0.3057863856123753</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.04060068540482276</v>
+        <v>0.04135111622014441</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.1489725330699901</v>
+        <v>0.152185133133152</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.2532872811004931</v>
+        <v>0.2538867829942856</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.1251002831656715</v>
+        <v>0.1351932022086308</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.1243206178433849</v>
+        <v>0.1274460339334043</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.1763690936342309</v>
+        <v>0.1802086190457087</v>
       </c>
       <c r="BK4" t="n">
-        <v>2.308699933046507</v>
+        <v>2.310850498326662</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.01958214090576114</v>
+        <v>0.02246287336072493</v>
       </c>
       <c r="BM4" t="n">
-        <v>5.664479357015489</v>
+        <v>5.667053356032504</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.006781595130605733</v>
+        <v>0.007901146819569434</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.01758726922958021</v>
+        <v>0.01793967764720663</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.4075336987540356</v>
+        <v>0.4045595807271924</v>
       </c>
       <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="n">
-        <v>0.1680466950672877</v>
+        <v>0.1652056448884721</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.02087543172991718</v>
+        <v>0.02438232983136455</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.05790381691769064</v>
+        <v>0.06175150541885736</v>
       </c>
       <c r="BU4" t="n">
-        <v>-5.014632640954979</v>
+        <v>-4.955168241980921</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.1680631038416563</v>
+        <v>0.1845124111218253</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.03846073586976061</v>
+        <v>0.04233244925602657</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.05401912499160622</v>
+        <v>0.05531505344781514</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.02714022629483941</v>
+        <v>0.03050737632824176</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.0322165914875576</v>
+        <v>0.03401451171617539</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.2812112458762021</v>
+        <v>0.2822610527213794</v>
       </c>
       <c r="CB4" t="n">
-        <v>-16.30688800758778</v>
+        <v>-16.30130685991135</v>
       </c>
       <c r="CC4" t="n">
-        <v>-10.18063839245054</v>
+        <v>-10.20095137877508</v>
       </c>
       <c r="CD4" t="n">
-        <v>233.7241902793869</v>
+        <v>233.7611354422765</v>
       </c>
       <c r="CE4" t="n">
-        <v>-2.281662647724706</v>
+        <v>-2.296539999163499</v>
       </c>
       <c r="CF4" t="n">
-        <v>-2.853737035143164</v>
+        <v>-2.855836442069666</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.004125477880257274</v>
+        <v>-0.005334953788392187</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.04628671993117163</v>
+        <v>0.04791477364468894</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.01540142569528348</v>
+        <v>0.02249317065823755</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0.2904443259137101</v>
+        <v>-0.2930350269089538</v>
       </c>
       <c r="CK4" t="n">
-        <v>-0.07964219335392445</v>
+        <v>-0.08012160091871214</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.001043660769541044</v>
+        <v>-0.000289816951220434</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.01163663602991723</v>
+        <v>0.01183305009083813</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.1655898048278788</v>
+        <v>0.1772686213778533</v>
       </c>
       <c r="CO4" t="inlineStr"/>
       <c r="CP4" t="n">
-        <v>0.02011400622993014</v>
+        <v>0.02082241265030177</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.4445226653763437</v>
+        <v>0.4647015554790206</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0.0005033686211513124</v>
+        <v>-0.002143102253054752</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.01942047466875207</v>
+        <v>-0.02217761683912629</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.04696919532872037</v>
+        <v>0.04126909820752522</v>
       </c>
       <c r="CU4" t="inlineStr"/>
       <c r="CV4" t="n">
-        <v>-0.02112078480925083</v>
+        <v>-0.02169345362988887</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.5380238510537915</v>
+        <v>0.5504912459089714</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.07854307034848976</v>
+        <v>0.08049218563789981</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.03310495354432819</v>
+        <v>0.03217380172671928</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.008137735667858874</v>
+        <v>0.007712550588469924</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.07779838056676648</v>
+        <v>0.07820477051091243</v>
       </c>
       <c r="DB4" t="n">
-        <v>125.9265908193525</v>
+        <v>130.3205978946364</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.02409504022374331</v>
+        <v>0.02784182257982079</v>
       </c>
       <c r="DD4" t="n">
-        <v>-1.641571903937763</v>
+        <v>-1.64271850194675</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.1775564184475256</v>
+        <v>0.1780928521306501</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0.001918058934487574</v>
+        <v>-0.01684349332158405</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.01671457366033673</v>
+        <v>-0.01735699200475942</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.03351936652031082</v>
+        <v>-0.02537017640132241</v>
       </c>
       <c r="DI4" t="n">
-        <v>-1.429450345364631</v>
+        <v>-1.357518266303694</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.019929676899303</v>
+        <v>0.02034924479702411</v>
       </c>
       <c r="DK4" t="n">
-        <v>2.456838698539554</v>
+        <v>2.447624517250286</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.0678802235472845</v>
+        <v>0.09940294865446668</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.04468500153346661</v>
+        <v>0.0481325621393735</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.01177142653077757</v>
+        <v>0.01122768449535863</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.001022034532177251</v>
+        <v>-0.0003564908917077739</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0001110125205769449</v>
+        <v>-0.002322258829579919</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.04454361710522009</v>
+        <v>0.04371163735135222</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.07298455673664293</v>
+        <v>-0.07367516330733118</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.1285303742175899</v>
+        <v>0.1258579399662638</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.07042627864850577</v>
+        <v>0.07240485109671917</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.1736567282081858</v>
+        <v>0.1755738072816404</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.6496320901636111</v>
+        <v>0.6496003248131685</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0.1187846337120264</v>
+        <v>-0.1195058573925653</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.03229308169611816</v>
+        <v>-0.03231178217966982</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0.3341435251466069</v>
+        <v>-0.3354063287343541</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.0006460952678896835</v>
+        <v>0.0164736785443219</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.322673743555439</v>
+        <v>0.3851810048403487</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.0156951530402547</v>
+        <v>0.01607593771400685</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.0945421804362596</v>
+        <v>0.09617389813598504</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.01765585455501164</v>
+        <v>0.007782464159129189</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.05895449964116421</v>
+        <v>0.05855521870561123</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.02594964716373695</v>
+        <v>0.02523112126692693</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.0820513202524777</v>
+        <v>0.08196945855213106</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.08473659008581344</v>
+        <v>0.111242833833717</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.1630571470593832</v>
+        <v>-0.1591582182346116</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.0007903340623361871</v>
+        <v>0.001910742046939436</v>
       </c>
       <c r="EK4" t="n">
-        <v>-1.555937696294739</v>
+        <v>-1.711625341229351</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.1054470027277613</v>
+        <v>0.1773089436414007</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0.01653448788418922</v>
+        <v>-0.02299751221312116</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.3537361756638631</v>
+        <v>-0.3530125374188238</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0.02048106520853345</v>
+        <v>-0.02256813313207945</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.06402573292558418</v>
+        <v>0.06970920098377836</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.04121332774465826</v>
+        <v>0.04561538633669663</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.009139878836321532</v>
+        <v>0.008716548907025657</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.01166127900390448</v>
+        <v>0.0109834259615235</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.02971896884751142</v>
+        <v>0.03039126185390579</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0.2354013973443568</v>
+        <v>-0.2346201387008263</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.01682704737469831</v>
+        <v>-0.01980874968769752</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.02177891912405909</v>
+        <v>0.02615324684309196</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.03360103398895162</v>
+        <v>0.03660660992637085</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0.00554996603751462</v>
+        <v>-0.003493304254458908</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0.01001676913597716</v>
+        <v>-0.007942735604073372</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.006454557361621109</v>
+        <v>0.01204495266354059</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.2504841430658412</v>
+        <v>0.2749684113449273</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0.0097929471551175</v>
+        <v>-0.009753484764666786</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.05310485427293139</v>
+        <v>0.05594302442183419</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0.01627638884280404</v>
+        <v>-0.01375409983531541</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.005787487270051095</v>
+        <v>0.007994880809116438</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.03274550004794304</v>
+        <v>-0.03299208282863949</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.007712115452265174</v>
+        <v>-0.006509616827704202</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.06817431235169766</v>
+        <v>-0.06641892471533065</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.07777059345790105</v>
+        <v>0.08000862355351138</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.01335134126082837</v>
+        <v>0.01326500150828509</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0.01230060080422486</v>
+        <v>-0.01203463998215922</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.01307893015182217</v>
+        <v>0.01190222509344413</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.01732251610891074</v>
+        <v>0.01696583524244719</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.007179566812578356</v>
+        <v>0.006818085147047778</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.1532333360236984</v>
+        <v>0.1468587249402685</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.09806422967164823</v>
+        <v>0.1075419691648184</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.1563245650187714</v>
+        <v>0.1601350721796271</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.300397494438185</v>
+        <v>0.3010246377457647</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.04065434553247482</v>
+        <v>0.04369572890088096</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.01267367584216088</v>
+        <v>-0.01071680464489949</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.02909445733365804</v>
+        <v>0.03291012415870876</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.1643750334490667</v>
+        <v>0.2019159885574314</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.04973074283605943</v>
+        <v>0.05720375658936067</v>
       </c>
       <c r="FY4" t="n">
-        <v>14.29758316677222</v>
+        <v>14.29670033256442</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.00422960990528408</v>
+        <v>0.2035939551703977</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.02011550939458683</v>
+        <v>0.02379885404653178</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.1923097020554923</v>
+        <v>0.1981060165551236</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.03268733383684969</v>
+        <v>0.03725164830752527</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.01414083229303972</v>
+        <v>0.01630760155920975</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.3691845045359552</v>
+        <v>0.3719432428099916</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.008392861882664941</v>
+        <v>0.008628926973202103</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.0112739366882059</v>
+        <v>-0.008843632679758394</v>
       </c>
       <c r="GH4" t="n">
-        <v>-0.07093754387994108</v>
+        <v>-0.07586364385740361</v>
       </c>
       <c r="GI4" t="n">
-        <v>0.09858885705482653</v>
+        <v>0.08924364230620076</v>
       </c>
       <c r="GJ4" t="n">
-        <v>-0.1644788238327057</v>
+        <v>-0.161919494344141</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.007357350077002237</v>
+        <v>0.01148268378027596</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.7166960128747613</v>
+        <v>0.7140322431368415</v>
       </c>
       <c r="GM4" t="n">
-        <v>-0.01394577002934587</v>
+        <v>-0.01520540199419666</v>
       </c>
       <c r="GN4" t="n">
-        <v>-0.1159897669463531</v>
+        <v>-0.1062666886652969</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.03125305618877199</v>
+        <v>0.03360399162633468</v>
       </c>
       <c r="GP4" t="n">
-        <v>-0.00234667719580016</v>
+        <v>-0.0007955994202768046</v>
       </c>
       <c r="GQ4" t="n">
-        <v>0.002466616434269119</v>
+        <v>0.002871195844615124</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.005276729934353516</v>
+        <v>0.00672627154183167</v>
       </c>
       <c r="GS4" t="n">
-        <v>-0.006103341181900413</v>
+        <v>-0.003726839143856866</v>
       </c>
       <c r="GT4" t="n">
-        <v>0.005437355771359455</v>
+        <v>0.006698725977959757</v>
       </c>
       <c r="GU4" t="n">
-        <v>-0.007984494029173034</v>
+        <v>-0.007482148822366062</v>
       </c>
       <c r="GV4" t="n">
-        <v>-0.004105036722263896</v>
+        <v>-0.003136188274453293</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.04383426138804927</v>
+        <v>0.04652836279975184</v>
       </c>
       <c r="GX4" t="n">
-        <v>-0.001481772010497608</v>
+        <v>0.0009426491157017456</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.001801060515345141</v>
+        <v>0.00344327182226947</v>
       </c>
       <c r="GZ4" t="n">
-        <v>-0.0004228178687037734</v>
+        <v>0.001277959682629883</v>
       </c>
       <c r="HA4" t="n">
-        <v>-0.002531636146959624</v>
+        <v>-0.002803511405274488</v>
       </c>
       <c r="HB4" t="n">
-        <v>-0.0652107742709942</v>
+        <v>-0.06400041065448733</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.02444189641139319</v>
+        <v>-0.02415176132944986</v>
       </c>
       <c r="HD4" t="n">
-        <v>-8.264547101399044</v>
+        <v>-8.261358799773035</v>
       </c>
       <c r="HE4" t="n">
-        <v>-9.872196821720278e-05</v>
+        <v>0.001049845699758446</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.00204883828329783</v>
+        <v>0.003868548126751695</v>
       </c>
       <c r="HG4" t="n">
-        <v>-0.09189333415627915</v>
+        <v>-0.08787407985703784</v>
       </c>
       <c r="HH4" t="n">
-        <v>0.004112156608447805</v>
+        <v>0.007575706199228023</v>
       </c>
       <c r="HI4" t="n">
-        <v>-0.005261753864677485</v>
+        <v>-0.001477305057882598</v>
       </c>
       <c r="HJ4" t="n">
-        <v>0.1555640597390056</v>
+        <v>0.1584134120601862</v>
       </c>
       <c r="HK4" t="n">
-        <v>0.01040043785971999</v>
+        <v>0.01200046129679934</v>
       </c>
       <c r="HL4" t="n">
-        <v>0.001377597785019194</v>
+        <v>0.002861378390764308</v>
       </c>
       <c r="HM4" t="n">
-        <v>-0.00481973766561655</v>
+        <v>-0.004281486749535244</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.009346979227350293</v>
+        <v>0.01072032496915189</v>
       </c>
       <c r="HO4" t="n">
-        <v>-0.004306567721714016</v>
+        <v>-0.003656895840989903</v>
       </c>
       <c r="HP4" t="n">
-        <v>0.0100375605972347</v>
+        <v>0.009676408997482309</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.01307125315421502</v>
+        <v>0.0115662383538214</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.02143788543939049</v>
+        <v>0.02088877358723825</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.01107591444568561</v>
+        <v>0.01038248622218855</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.01023831140307805</v>
+        <v>0.01287115360931662</v>
       </c>
       <c r="HU4" t="n">
-        <v>0.06617301588172984</v>
+        <v>0.06892173881562061</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.00605019027772858</v>
+        <v>-0.00312781487205677</v>
       </c>
       <c r="HW4" t="n">
-        <v>0.006651141341515098</v>
+        <v>0.006973571103012143</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.01509042468801561</v>
+        <v>-0.01233482057273194</v>
       </c>
       <c r="HY4" t="n">
-        <v>-0.01331088696170362</v>
+        <v>-0.01323186072523208</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.006674614559324413</v>
+        <v>0.008140335959087931</v>
       </c>
       <c r="IA4" t="n">
-        <v>-0.0017174015041855</v>
+        <v>-0.001918010113382117</v>
       </c>
       <c r="IB4" t="n">
-        <v>0.006929787984490981</v>
+        <v>0.00752461067180585</v>
       </c>
       <c r="IC4" t="n">
-        <v>0.01386110267594515</v>
+        <v>0.01466103016693162</v>
       </c>
       <c r="ID4" t="n">
-        <v>-0.004414222053036212</v>
+        <v>-7.682112328126308e-05</v>
       </c>
       <c r="IE4" t="n">
-        <v>0.001480973523052511</v>
+        <v>0.001777137077772944</v>
       </c>
     </row>
     <row r="5">
@@ -3313,710 +3242,710 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.072909040854813</v>
+        <v>5.772882047834792</v>
       </c>
       <c r="C5" t="n">
-        <v>4.78536138530133</v>
+        <v>4.728118261888806</v>
       </c>
       <c r="D5" t="n">
-        <v>3.289362732166094</v>
+        <v>3.177173003229944</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.666843036295977</v>
+        <v>-0.8544347935576226</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4637907262921925</v>
+        <v>0.2432261837393459</v>
       </c>
       <c r="G5" t="n">
-        <v>5.234976192980022</v>
+        <v>4.861258966372564</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.590654052265043</v>
+        <v>-8.719171601643264</v>
       </c>
       <c r="I5" t="n">
-        <v>5.229745583726938</v>
+        <v>5.273888532792385</v>
       </c>
       <c r="J5" t="n">
-        <v>4.902254410329175</v>
+        <v>4.890747961961882</v>
       </c>
       <c r="K5" t="n">
-        <v>5.688941733139769</v>
+        <v>5.485803073769773</v>
       </c>
       <c r="L5" t="n">
-        <v>4.497931922524049</v>
+        <v>4.446896149465995</v>
       </c>
       <c r="M5" t="n">
-        <v>4.254120728302325</v>
+        <v>3.922123786687139</v>
       </c>
       <c r="N5" t="n">
-        <v>45.00588773687338</v>
+        <v>45.37226392932351</v>
       </c>
       <c r="O5" t="n">
-        <v>45.7794382318102</v>
+        <v>45.42999393261094</v>
       </c>
       <c r="P5" t="n">
-        <v>10.42168198739571</v>
+        <v>10.36868116506604</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.018494170162346</v>
+        <v>2.975008702431221</v>
       </c>
       <c r="R5" t="n">
-        <v>21.93650722282705</v>
+        <v>22.21535541382967</v>
       </c>
       <c r="S5" t="n">
-        <v>2.715962895119283</v>
+        <v>2.502414420599139</v>
       </c>
       <c r="T5" t="n">
-        <v>7.667050151705393</v>
+        <v>7.454108475361782</v>
       </c>
       <c r="U5" t="n">
-        <v>7.415104396098391</v>
+        <v>7.40565832320093</v>
       </c>
       <c r="V5" t="n">
-        <v>5.654652578363584</v>
+        <v>5.615755944196207</v>
       </c>
       <c r="W5" t="n">
-        <v>5.073507668103426</v>
+        <v>4.085717071548951</v>
       </c>
       <c r="X5" t="n">
-        <v>1.93146405305316</v>
+        <v>1.660674166440459</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.759174616367805</v>
+        <v>4.750057874953644</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.947240992695952</v>
+        <v>3.784994217011082</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.8583197893824503</v>
+        <v>0.6056800884885973</v>
       </c>
       <c r="AB5" t="n">
-        <v>-18.55524469256374</v>
+        <v>-18.67495943340568</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.405599026933338</v>
+        <v>2.208804553395278</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.25263381998554</v>
+        <v>10.12228424026542</v>
       </c>
       <c r="AE5" t="n">
-        <v>6.370891135368661</v>
+        <v>6.304346576110662</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.719825239604804</v>
+        <v>4.678548456388104</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.837205521022444</v>
+        <v>9.774237674714234</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.497115407301307</v>
+        <v>2.320821898005418</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.528054253570539</v>
+        <v>1.30227046554927</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10.42240504604235</v>
+        <v>10.38074943256475</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.91861141297973</v>
+        <v>1.751677004749876</v>
       </c>
       <c r="AL5" t="n">
-        <v>10.0116500675812</v>
+        <v>9.890922393904736</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.832108793050882</v>
+        <v>9.85678817668637</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.177692274210029</v>
+        <v>6.185188986867889</v>
       </c>
       <c r="AO5" t="n">
-        <v>14.9212429952602</v>
+        <v>14.87785159534867</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.977057944108984</v>
+        <v>1.711094769279334</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7.519384751491038</v>
+        <v>7.170757487034965</v>
       </c>
       <c r="AR5" t="n">
-        <v>-14.0172215947311</v>
+        <v>-14.13782080970948</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.485622057412666</v>
+        <v>2.294687768614212</v>
       </c>
       <c r="AT5" t="n">
-        <v>-121.6007394787603</v>
+        <v>-121.8373030312828</v>
       </c>
       <c r="AU5" t="n">
-        <v>5.54650719602052</v>
+        <v>3.678483884609791e+19</v>
       </c>
       <c r="AV5" t="n">
-        <v>2.803095322573348</v>
+        <v>2.754595372829948</v>
       </c>
       <c r="AW5" t="n">
-        <v>-4.083747266270894</v>
+        <v>-3.825361755132306</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.626919778886782</v>
+        <v>6.943898888264567</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0.5823247952418287</v>
+        <v>-0.6662422191235633</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4.249577477090255</v>
+        <v>4.331380163571762</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.5496918147296501</v>
+        <v>0.4645314629153239</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.300730791343836</v>
+        <v>1.232624532312725</v>
       </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="n">
-        <v>4.637074233742396</v>
+        <v>4.690504394721259</v>
       </c>
       <c r="BE5" t="n">
-        <v>6.432780872690126</v>
+        <v>6.520160981763186</v>
       </c>
       <c r="BF5" t="n">
-        <v>3.601382308422103</v>
+        <v>3.535986809217373</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.9728903990260305</v>
+        <v>-0.9773461488856361</v>
       </c>
       <c r="BH5" t="n">
-        <v>4.610666516216277</v>
+        <v>4.407782058992806</v>
       </c>
       <c r="BI5" t="n">
-        <v>2.382319953803224</v>
+        <v>2.37060854799331</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.3598290354715963</v>
+        <v>-0.4412097862062838</v>
       </c>
       <c r="BK5" t="n">
-        <v>-4.469692254619247</v>
+        <v>-4.553320444928858</v>
       </c>
       <c r="BL5" t="n">
-        <v>1.604784196425323</v>
+        <v>1.487098577741285</v>
       </c>
       <c r="BM5" t="n">
-        <v>-68.25403056661875</v>
+        <v>-68.37156618508121</v>
       </c>
       <c r="BN5" t="n">
-        <v>4.261679117031481</v>
+        <v>3.977148348184862</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.702652760691087</v>
+        <v>1.68394732723216</v>
       </c>
       <c r="BP5" t="n">
-        <v>4.458947646873938</v>
+        <v>4.943139401018563</v>
       </c>
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="n">
-        <v>-0.3398416447382857</v>
+        <v>-0.376474696505098</v>
       </c>
       <c r="BS5" t="n">
-        <v>1.461592644357028</v>
+        <v>1.189035824012173</v>
       </c>
       <c r="BT5" t="n">
-        <v>1.948970915857166</v>
+        <v>1.802705124074566</v>
       </c>
       <c r="BU5" t="n">
-        <v>315.4141908375169</v>
+        <v>314.5303689209798</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.4790553132254827</v>
+        <v>-0.04712891399937469</v>
       </c>
       <c r="BW5" t="n">
-        <v>1.687157042606783</v>
+        <v>1.506006597513627</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.090337950908591</v>
+        <v>1.022304483657082</v>
       </c>
       <c r="BY5" t="n">
-        <v>2.319207161022403</v>
+        <v>1.597117076956191</v>
       </c>
       <c r="BZ5" t="n">
-        <v>1.209722861057125</v>
+        <v>0.8294628155859849</v>
       </c>
       <c r="CA5" t="n">
-        <v>-2.20143561202234</v>
+        <v>-2.245422421651847</v>
       </c>
       <c r="CB5" t="n">
-        <v>1883.892285156367</v>
+        <v>1885.82530364833</v>
       </c>
       <c r="CC5" t="n">
-        <v>563.6054952868137</v>
+        <v>564.1199411552568</v>
       </c>
       <c r="CD5" t="n">
-        <v>-2582.293525376506</v>
+        <v>-2583.038298099543</v>
       </c>
       <c r="CE5" t="n">
-        <v>211.773727529257</v>
+        <v>212.3394018551762</v>
       </c>
       <c r="CF5" t="n">
-        <v>171.0836101432363</v>
+        <v>170.9408300724654</v>
       </c>
       <c r="CG5" t="n">
-        <v>1.380099553955975</v>
+        <v>1.329455955262356</v>
       </c>
       <c r="CH5" t="n">
-        <v>1.621953660640011</v>
+        <v>1.623942415323367</v>
       </c>
       <c r="CI5" t="n">
-        <v>2.42679440180275</v>
+        <v>2.467468004822497</v>
       </c>
       <c r="CJ5" t="n">
-        <v>21.22968597681794</v>
+        <v>21.27005131889977</v>
       </c>
       <c r="CK5" t="n">
-        <v>7.647274834852976</v>
+        <v>7.606556979713066</v>
       </c>
       <c r="CL5" t="n">
-        <v>2.380184208304888</v>
+        <v>2.325238003997709</v>
       </c>
       <c r="CM5" t="n">
-        <v>2.650618332717721</v>
+        <v>2.601172126938695</v>
       </c>
       <c r="CN5" t="n">
-        <v>2.751698280630766</v>
+        <v>2.696424836741839</v>
       </c>
       <c r="CO5" t="inlineStr"/>
       <c r="CP5" t="n">
-        <v>1.906588640313548</v>
+        <v>1.812709096511714</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.7718402336953858</v>
+        <v>-1.014860560018869</v>
       </c>
       <c r="CR5" t="n">
-        <v>2.508461835914833</v>
+        <v>2.503550307878462</v>
       </c>
       <c r="CS5" t="n">
-        <v>3.964383010736967</v>
+        <v>3.989196280327141</v>
       </c>
       <c r="CT5" t="n">
-        <v>3.028458715748791</v>
+        <v>3.076712315954836</v>
       </c>
       <c r="CU5" t="inlineStr"/>
       <c r="CV5" t="n">
-        <v>7.290041695381468</v>
+        <v>7.297801650786582</v>
       </c>
       <c r="CW5" t="n">
-        <v>-1.96644804647898</v>
+        <v>-2.23206440841339</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.6609572162682009</v>
+        <v>0.5606619849952024</v>
       </c>
       <c r="CY5" t="n">
-        <v>1.542222318804854</v>
+        <v>1.564874063918311</v>
       </c>
       <c r="CZ5" t="n">
-        <v>2.14560473775899</v>
+        <v>2.177905630397147</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.7970065603121623</v>
+        <v>0.76117664839685</v>
       </c>
       <c r="DB5" t="n">
-        <v>-1483.324044683609</v>
+        <v>-1535.240750492686</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.5776651159735555</v>
+        <v>0.4163873221973946</v>
       </c>
       <c r="DD5" t="n">
-        <v>138.6891000795628</v>
+        <v>138.6670546817547</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.801212681249365</v>
+        <v>0.7326912632567448</v>
       </c>
       <c r="DF5" t="n">
-        <v>3.500677536108078</v>
+        <v>3.981149041426052</v>
       </c>
       <c r="DG5" t="n">
-        <v>4.084875411827777</v>
+        <v>4.0787057916869</v>
       </c>
       <c r="DH5" t="n">
-        <v>5.253008873840611</v>
+        <v>5.204138814616111</v>
       </c>
       <c r="DI5" t="n">
-        <v>44.17852164380685</v>
+        <v>42.19065901313162</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.6516039329637426</v>
+        <v>0.6248037642748383</v>
       </c>
       <c r="DK5" t="n">
-        <v>76.89108490965678</v>
+        <v>77.12479575684537</v>
       </c>
       <c r="DL5" t="n">
-        <v>5.875609075703538</v>
+        <v>5.480681986986959</v>
       </c>
       <c r="DM5" t="n">
-        <v>7.12635016344022</v>
+        <v>7.056663988150341</v>
       </c>
       <c r="DN5" t="n">
-        <v>2.541471606304079</v>
+        <v>2.508051605565194</v>
       </c>
       <c r="DO5" t="n">
-        <v>3.315498176967891</v>
+        <v>3.223838767561492</v>
       </c>
       <c r="DP5" t="n">
-        <v>2.509061963996499</v>
+        <v>2.499057182856838</v>
       </c>
       <c r="DQ5" t="n">
-        <v>2.153880178967235</v>
+        <v>2.131478750504428</v>
       </c>
       <c r="DR5" t="n">
-        <v>7.211269306250644</v>
+        <v>7.141871921046533</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0.3659282929188175</v>
+        <v>-0.4254345617860902</v>
       </c>
       <c r="DT5" t="n">
-        <v>1.389534095482357</v>
+        <v>1.336397669705993</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.9831231019352993</v>
+        <v>0.978150040338071</v>
       </c>
       <c r="DV5" t="n">
-        <v>-4.406203312407746</v>
+        <v>-4.447693360509055</v>
       </c>
       <c r="DW5" t="n">
-        <v>9.975837690178549</v>
+        <v>9.931397278371877</v>
       </c>
       <c r="DX5" t="n">
-        <v>4.412150819919111</v>
+        <v>4.359046177772282</v>
       </c>
       <c r="DY5" t="n">
-        <v>59.67654970331949</v>
+        <v>59.74398129439298</v>
       </c>
       <c r="DZ5" t="n">
-        <v>6.637893778289908</v>
+        <v>6.988569735297817</v>
       </c>
       <c r="EA5" t="n">
-        <v>2.984211964796655</v>
+        <v>2.200051391393039</v>
       </c>
       <c r="EB5" t="n">
-        <v>1.291857172058647</v>
+        <v>1.279611843218535</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0.1600278387380665</v>
+        <v>-0.2530292700725147</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.6940560234796924</v>
+        <v>0.7443143857107719</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.4408804754620632</v>
+        <v>0.3818496636951169</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.4233650848972271</v>
+        <v>0.3423229763430768</v>
       </c>
       <c r="EG5" t="n">
-        <v>3.358530707664196</v>
+        <v>3.400741670687157</v>
       </c>
       <c r="EH5" t="n">
-        <v>2.803389427933519</v>
+        <v>2.343675193363744</v>
       </c>
       <c r="EI5" t="n">
-        <v>12.23874747391799</v>
+        <v>12.12613730149761</v>
       </c>
       <c r="EJ5" t="n">
-        <v>2.738063284548631</v>
+        <v>2.783499094973711</v>
       </c>
       <c r="EK5" t="n">
-        <v>207.6715064710479</v>
+        <v>228.3496444474019</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.9346313346399868</v>
+        <v>-0.5162978620029772</v>
       </c>
       <c r="EM5" t="n">
-        <v>4.948574160543338</v>
+        <v>5.153770687685308</v>
       </c>
       <c r="EN5" t="n">
-        <v>24.38691529581847</v>
+        <v>24.30917447661658</v>
       </c>
       <c r="EO5" t="n">
-        <v>4.311964766596163</v>
+        <v>4.331491978832406</v>
       </c>
       <c r="EP5" t="n">
-        <v>1.220879784770201</v>
+        <v>0.953733827882286</v>
       </c>
       <c r="EQ5" t="n">
-        <v>15.39675279819853</v>
+        <v>15.08643646157699</v>
       </c>
       <c r="ER5" t="n">
-        <v>1.955004879789247</v>
+        <v>1.894536767764695</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.8339015212511447</v>
+        <v>0.7736943743168205</v>
       </c>
       <c r="ET5" t="n">
-        <v>3.348200087907003</v>
+        <v>3.290314178519823</v>
       </c>
       <c r="EU5" t="n">
-        <v>17.4107621201174</v>
+        <v>17.37698804724329</v>
       </c>
       <c r="EV5" t="n">
-        <v>4.1740980216823</v>
+        <v>4.229113705424471</v>
       </c>
       <c r="EW5" t="n">
-        <v>12.04599305569436</v>
+        <v>11.91820133087356</v>
       </c>
       <c r="EX5" t="n">
-        <v>8.708742141312309</v>
+        <v>8.720492882457513</v>
       </c>
       <c r="EY5" t="n">
-        <v>4.706721733075031</v>
+        <v>4.643899148532974</v>
       </c>
       <c r="EZ5" t="n">
-        <v>5.232521560154534</v>
+        <v>5.231224666835369</v>
       </c>
       <c r="FA5" t="n">
-        <v>5.211642632402777</v>
+        <v>4.999015315039173</v>
       </c>
       <c r="FB5" t="n">
-        <v>6.794482893337281</v>
+        <v>6.449901868087408</v>
       </c>
       <c r="FC5" t="n">
-        <v>4.287146203412093</v>
+        <v>4.268967164107769</v>
       </c>
       <c r="FD5" t="n">
-        <v>2.31590158810714</v>
+        <v>2.127342518344649</v>
       </c>
       <c r="FE5" t="n">
-        <v>4.146994643356599</v>
+        <v>3.54772751294946</v>
       </c>
       <c r="FF5" t="n">
-        <v>1.764612800183382</v>
+        <v>1.516798180386733</v>
       </c>
       <c r="FG5" t="n">
-        <v>11.03068361354623</v>
+        <v>11.10468442871668</v>
       </c>
       <c r="FH5" t="n">
-        <v>2.207386276240527</v>
+        <v>2.029390947175038</v>
       </c>
       <c r="FI5" t="n">
-        <v>9.25331391426864</v>
+        <v>9.130696019654547</v>
       </c>
       <c r="FJ5" t="n">
-        <v>2.42737127235391</v>
+        <v>2.414511415561685</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.7783233199494246</v>
+        <v>0.768639895979454</v>
       </c>
       <c r="FL5" t="n">
-        <v>2.886021864131477</v>
+        <v>2.856959664821637</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.6900200370614937</v>
+        <v>0.6222796384183158</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.4204554380976171</v>
+        <v>0.3417565709505729</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.7207916261837755</v>
+        <v>0.6611756777184624</v>
       </c>
       <c r="FP5" t="n">
-        <v>9.05702546757713</v>
+        <v>9.007214276149812</v>
       </c>
       <c r="FQ5" t="n">
-        <v>5.223487737342611</v>
+        <v>4.819858646318398</v>
       </c>
       <c r="FR5" t="n">
-        <v>11.26351301541742</v>
+        <v>11.19773025793922</v>
       </c>
       <c r="FS5" t="n">
-        <v>3.981096658052115</v>
+        <v>3.954407917382721</v>
       </c>
       <c r="FT5" t="n">
-        <v>9.920415011098454</v>
+        <v>9.931901513781089</v>
       </c>
       <c r="FU5" t="n">
-        <v>5.64802325416321</v>
+        <v>5.578459811142892</v>
       </c>
       <c r="FV5" t="n">
-        <v>4.750473905461748</v>
+        <v>4.500377257956488</v>
       </c>
       <c r="FW5" t="n">
-        <v>6.116943225345853</v>
+        <v>5.413429072771304</v>
       </c>
       <c r="FX5" t="n">
-        <v>4.122453658278137</v>
+        <v>3.858954019144397</v>
       </c>
       <c r="FY5" t="n">
-        <v>-198.1538096507708</v>
+        <v>-198.5025375134607</v>
       </c>
       <c r="FZ5" t="n">
-        <v>6.28688077366597</v>
+        <v>3.700753550570344</v>
       </c>
       <c r="GA5" t="n">
-        <v>5.348637302284835</v>
+        <v>5.153788646427931</v>
       </c>
       <c r="GB5" t="n">
-        <v>1.724466218066388</v>
+        <v>1.529116476192689</v>
       </c>
       <c r="GC5" t="n">
-        <v>4.468756216485037</v>
+        <v>4.201486468916308</v>
       </c>
       <c r="GD5" t="n">
-        <v>4.731792077681169</v>
+        <v>4.638217332671545</v>
       </c>
       <c r="GE5" t="n">
-        <v>2.663628052961911</v>
+        <v>2.595637380631166</v>
       </c>
       <c r="GF5" t="n">
-        <v>2.427267074684603</v>
+        <v>2.217979623162941</v>
       </c>
       <c r="GG5" t="n">
-        <v>6.872787009174025</v>
+        <v>6.800423536938647</v>
       </c>
       <c r="GH5" t="n">
-        <v>10.37699680274764</v>
+        <v>10.01271360140293</v>
       </c>
       <c r="GI5" t="n">
-        <v>6.938759386924832</v>
+        <v>6.933775901158573</v>
       </c>
       <c r="GJ5" t="n">
-        <v>13.82841358854082</v>
+        <v>13.75139642275322</v>
       </c>
       <c r="GK5" t="n">
-        <v>1.927796313428519</v>
+        <v>1.562694932994717</v>
       </c>
       <c r="GL5" t="n">
-        <v>7.986212616362863</v>
+        <v>7.760323766108765</v>
       </c>
       <c r="GM5" t="n">
-        <v>4.708613229630972</v>
+        <v>4.446461295129188</v>
       </c>
       <c r="GN5" t="n">
-        <v>42.55888179907328</v>
+        <v>42.45811406200207</v>
       </c>
       <c r="GO5" t="n">
-        <v>4.485385342822985</v>
+        <v>4.488505288110224</v>
       </c>
       <c r="GP5" t="n">
-        <v>2.770612887478207</v>
+        <v>2.729649518473161</v>
       </c>
       <c r="GQ5" t="n">
-        <v>1.125400215994283</v>
+        <v>0.9045406334408421</v>
       </c>
       <c r="GR5" t="n">
-        <v>2.313498940245491</v>
+        <v>2.197236030759215</v>
       </c>
       <c r="GS5" t="n">
-        <v>2.283134684987869</v>
+        <v>1.919773220114621</v>
       </c>
       <c r="GT5" t="n">
-        <v>0.9872390443925958</v>
+        <v>0.8550896625555544</v>
       </c>
       <c r="GU5" t="n">
-        <v>5.844238857951612</v>
+        <v>5.876634334424103</v>
       </c>
       <c r="GV5" t="n">
-        <v>1.289319104069089</v>
+        <v>1.185919731606254</v>
       </c>
       <c r="GW5" t="n">
-        <v>7.400007212202294</v>
+        <v>7.413682480091506</v>
       </c>
       <c r="GX5" t="n">
-        <v>1.853263180366346</v>
+        <v>1.728281032748021</v>
       </c>
       <c r="GY5" t="n">
-        <v>4.022741955463799</v>
+        <v>3.972960244840573</v>
       </c>
       <c r="GZ5" t="n">
-        <v>4.419371588381609</v>
+        <v>4.423256068276803</v>
       </c>
       <c r="HA5" t="n">
-        <v>3.691255078585758</v>
+        <v>3.68225300285458</v>
       </c>
       <c r="HB5" t="n">
-        <v>6.798410177194915</v>
+        <v>6.724177267453715</v>
       </c>
       <c r="HC5" t="n">
-        <v>4.419931437230663</v>
+        <v>4.423236195215964</v>
       </c>
       <c r="HD5" t="n">
-        <v>547.9144339387921</v>
+        <v>547.9048343002664</v>
       </c>
       <c r="HE5" t="n">
-        <v>3.518980925350809</v>
+        <v>3.351617244395501</v>
       </c>
       <c r="HF5" t="n">
-        <v>1.762721752902282</v>
+        <v>1.665983188555405</v>
       </c>
       <c r="HG5" t="n">
-        <v>19.42556059756755</v>
+        <v>19.39748885222247</v>
       </c>
       <c r="HH5" t="n">
-        <v>9.124072781254025</v>
+        <v>9.132651809912732</v>
       </c>
       <c r="HI5" t="n">
-        <v>3.915911335046472</v>
+        <v>3.906568288224045</v>
       </c>
       <c r="HJ5" t="n">
-        <v>2.631797799566517</v>
+        <v>2.520316598044275</v>
       </c>
       <c r="HK5" t="n">
-        <v>3.645704214862569</v>
+        <v>3.487529649768286</v>
       </c>
       <c r="HL5" t="n">
-        <v>2.324235104188212</v>
+        <v>2.237813232250103</v>
       </c>
       <c r="HM5" t="n">
-        <v>3.37751685103169</v>
+        <v>2.902894645022378</v>
       </c>
       <c r="HN5" t="n">
-        <v>1.456185339348833</v>
+        <v>1.253105350425757</v>
       </c>
       <c r="HO5" t="n">
-        <v>1.910750243474745</v>
+        <v>1.763342477391804</v>
       </c>
       <c r="HP5" t="n">
-        <v>0.3052431234073635</v>
+        <v>0.2619683400921436</v>
       </c>
       <c r="HQ5" t="n">
-        <v>0.783979987344037</v>
+        <v>0.7780703797675972</v>
       </c>
       <c r="HR5" t="n">
-        <v>0.05526794573457394</v>
+        <v>0.008689990910395795</v>
       </c>
       <c r="HS5" t="n">
-        <v>0.3569805870916414</v>
+        <v>0.3264392088087485</v>
       </c>
       <c r="HT5" t="n">
-        <v>1.611419773842472</v>
+        <v>1.426536874454181</v>
       </c>
       <c r="HU5" t="n">
-        <v>5.247920257696927</v>
+        <v>5.245772712128847</v>
       </c>
       <c r="HV5" t="n">
-        <v>1.406100136003863</v>
+        <v>1.239954819549008</v>
       </c>
       <c r="HW5" t="n">
-        <v>1.614544279839474</v>
+        <v>1.586528452029446</v>
       </c>
       <c r="HX5" t="n">
-        <v>2.55493650701911</v>
+        <v>2.444827513602566</v>
       </c>
       <c r="HY5" t="n">
-        <v>3.427005678289983</v>
+        <v>3.434704645314318</v>
       </c>
       <c r="HZ5" t="n">
-        <v>1.323282413519387</v>
+        <v>1.240959004879731</v>
       </c>
       <c r="IA5" t="n">
-        <v>2.011511517504347</v>
+        <v>1.978777778352131</v>
       </c>
       <c r="IB5" t="n">
-        <v>1.431404105273344</v>
+        <v>1.238453277161332</v>
       </c>
       <c r="IC5" t="n">
-        <v>1.017742578355677</v>
+        <v>0.8580848623066519</v>
       </c>
       <c r="ID5" t="n">
-        <v>1.56851171234058</v>
+        <v>1.374913768891636</v>
       </c>
       <c r="IE5" t="n">
-        <v>1.391628600777224</v>
+        <v>1.276747760012468</v>
       </c>
     </row>
     <row r="6">
@@ -4026,718 +3955,718 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0003054622089169854</v>
+        <v>0.06746518427637148</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01645124023381029</v>
+        <v>0.05117026355500514</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3978098416402253</v>
+        <v>0.3813623636766583</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6104629815338271</v>
+        <v>0.6156658438096533</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5977707958968665</v>
+        <v>0.5953624176710125</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03871512587370138</v>
+        <v>0.1797923415489174</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5463127781395544</v>
+        <v>0.5508614244999767</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07808863916756621</v>
+        <v>0.07789242215414216</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0505277987619625</v>
+        <v>-0.01288947086535865</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.005465719101566231</v>
+        <v>0.01978867657832339</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.06275586567984635</v>
+        <v>-0.02527890423967488</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1325402810958045</v>
+        <v>0.1456903728208133</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01926831902038611</v>
+        <v>0.01842929263891064</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1221366713233671</v>
+        <v>0.1230106806988048</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1442770133741809</v>
+        <v>0.144114900113962</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3739488122841936</v>
+        <v>0.3950399637058614</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.004781260065580472</v>
+        <v>-0.005930489701547106</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2831334029516399</v>
+        <v>0.2962590885862295</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05834573708226127</v>
+        <v>0.08023244085354367</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.1207954637459232</v>
+        <v>-0.1052095279574993</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.1685282022935778</v>
+        <v>-0.1319011854487006</v>
       </c>
       <c r="W6" t="n">
-        <v>0.008741714909316885</v>
+        <v>0.1694026388768496</v>
       </c>
       <c r="X6" t="n">
-        <v>0.06135315771200298</v>
+        <v>0.08801441671592647</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1305072013935533</v>
+        <v>0.1447720546499827</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.1088905363810245</v>
+        <v>-0.09881025403918353</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5722520320326787</v>
+        <v>0.5926514378309164</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.5478926370203792</v>
+        <v>0.5489247212104248</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.117296542960092</v>
+        <v>-0.1019149737347735</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.3300880216159875</v>
+        <v>-0.3231510015777161</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.05005507140512078</v>
+        <v>-0.04685588933529454</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.0405579420623316</v>
+        <v>-0.02067290484712363</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.1305268892518469</v>
+        <v>0.1306196708886742</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.2653833335734911</v>
+        <v>0.2748191121915751</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.1313775554788079</v>
+        <v>0.1386815756296456</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.3415203539391685</v>
+        <v>-0.324636171285578</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0.0730024507780425</v>
+        <v>-0.05130245006383698</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.2945336116639305</v>
+        <v>-0.2889014957800715</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.03288925782197816</v>
+        <v>0.03970578398496501</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.3689764869844812</v>
+        <v>-0.3511453112734336</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.1085759359112146</v>
+        <v>0.108358826377354</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.03199894129901974</v>
+        <v>0.05954526497675761</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0.2149299666565132</v>
+        <v>-0.1815096103852575</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.4910376749986934</v>
+        <v>0.4915523686498137</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.1285556298109201</v>
+        <v>-0.1147147738470626</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.4814397381412378</v>
+        <v>0.4817114280405067</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.1275949703520312</v>
+        <v>-0.3254032105330004</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.1347491390661065</v>
+        <v>0.1382975724820042</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.5393376665297784</v>
+        <v>0.5390424659271</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.04276248302308161</v>
+        <v>0.02852852973447542</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.5652653971778678</v>
+        <v>0.5523591313089269</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.3274612404222111</v>
+        <v>0.3143751454366411</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.4497868603803624</v>
+        <v>0.4434448440211672</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.4587296112636631</v>
+        <v>0.4464025981977402</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.2869814923371236</v>
+        <v>0.2855253762807542</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.2081221446439145</v>
+        <v>0.1916500614585275</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.4301852285896986</v>
+        <v>0.4192493109319748</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.4710339921718495</v>
+        <v>0.4699122613428682</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.2067610602838041</v>
+        <v>0.2206650712954633</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.5193227140976276</v>
+        <v>0.5207546931001622</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.9586688094704656</v>
+        <v>0.9653139995695386</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.1436435859344226</v>
+        <v>0.1437545711653944</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.3806258436970681</v>
+        <v>0.4204587799985364</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.6914172231261105</v>
+        <v>0.6915495144331619</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.02822811653135957</v>
+        <v>0.0322084038384981</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.4527771628781898</v>
+        <v>0.3617796351403743</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.2101463425431609</v>
+        <v>0.2097430679711162</v>
       </c>
       <c r="BQ6" t="n">
         <v>0</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.3819548680081295</v>
+        <v>0.3698618634135349</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.2448187801399525</v>
+        <v>0.2098376128684809</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.2135751506524735</v>
+        <v>0.2091151481254041</v>
       </c>
       <c r="BU6" t="n">
-        <v>-0.1737174038724159</v>
+        <v>-0.1717422605691547</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.2661564719634463</v>
+        <v>0.2849575157880099</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.2381174637052493</v>
+        <v>0.2450199911140253</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.2805259693401805</v>
+        <v>0.2542373062582522</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.2009723820054678</v>
+        <v>0.2051825856992819</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.2970602049112373</v>
+        <v>0.2832197564682592</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.2763352550742367</v>
+        <v>0.2744044412468881</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0.05913649964509157</v>
+        <v>-0.0591141203800943</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0.6272670722030986</v>
+        <v>-0.6282348133452095</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.4893137556520787</v>
+        <v>0.4893190275836602</v>
       </c>
       <c r="CE6" t="n">
-        <v>-0.08744162360937703</v>
+        <v>-0.08801703152566381</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0.1980357743046818</v>
+        <v>-0.198147655718502</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.1014543911576914</v>
+        <v>-0.1371429477960771</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.5863207537605543</v>
+        <v>0.5462593850458216</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.07314952349146679</v>
+        <v>0.08099272259758723</v>
       </c>
       <c r="CJ6" t="n">
-        <v>-0.1400238943312797</v>
+        <v>-0.1412286557525044</v>
       </c>
       <c r="CK6" t="n">
-        <v>-0.1274231274242374</v>
+        <v>-0.1279547306469389</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.0174947835509082</v>
+        <v>-0.004361344836096856</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.1209020304551364</v>
+        <v>0.1161571758790877</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.3882668681546766</v>
+        <v>0.399723550388532</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.3548449170397156</v>
+        <v>0.3718116894914252</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.5018794643904513</v>
+        <v>0.522549280326673</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0.00758488529224806</v>
+        <v>-0.02807440264363706</v>
       </c>
       <c r="CS6" t="n">
-        <v>-0.1320918788396105</v>
+        <v>-0.1455841781813403</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.2153641886599101</v>
+        <v>0.1896561338266467</v>
       </c>
       <c r="CU6" t="n">
         <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.04034446472653346</v>
+        <v>-0.04002490622408936</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.1223332585759459</v>
+        <v>0.1252084523202564</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.5738809339993762</v>
+        <v>0.5640951110582603</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.5169238515386908</v>
+        <v>0.4719489170069034</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.06164040090714914</v>
+        <v>0.05820951108902119</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.4955030972230562</v>
+        <v>0.4840393903836384</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.7490309327909761</v>
+        <v>0.749020830341896</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.5337298983129616</v>
+        <v>0.5926927365988546</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0.2002233937956547</v>
+        <v>-0.2002926622882527</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.7731491843605174</v>
+        <v>0.7739983859124197</v>
       </c>
       <c r="DF6" t="n">
-        <v>-0.01596958627512709</v>
+        <v>-0.1355700949381398</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0.09649701113835582</v>
+        <v>-0.09318019538085856</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.09849491824231771</v>
+        <v>-0.06923658374491394</v>
       </c>
       <c r="DI6" t="n">
         <v>-1</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.5473850599167855</v>
+        <v>0.4936712185899255</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.0929924652106868</v>
+        <v>0.09256088608710657</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.2118219694394093</v>
+        <v>0.2821253187884684</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.222640037875039</v>
+        <v>0.2343528515094504</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.1196792828048086</v>
+        <v>0.1104836872153849</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.008202599624858975</v>
+        <v>-0.002766839407891301</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.002011307511310586</v>
+        <v>-0.03596653845238658</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.183859855904506</v>
+        <v>0.1775056181592622</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.146448538266094</v>
+        <v>-0.147569767951978</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.52107240920689</v>
+        <v>0.5083888335822118</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.246911695817752</v>
+        <v>0.2445965942767921</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.3546797182580226</v>
+        <v>0.3498359612801254</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.4589941258443481</v>
+        <v>0.4579035638513421</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0.1418198106693921</v>
+        <v>-0.1425328304000132</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0.1736870406842566</v>
+        <v>-0.1706839977468683</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0.0575754765600912</v>
+        <v>-0.05764714045756245</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.00115081524727954</v>
+        <v>0.02505726173714055</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.2324376893588099</v>
+        <v>0.260475289851738</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.04762588608074525</v>
+        <v>0.0488397576832585</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.5412501076190668</v>
+        <v>0.5397529940084081</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.4886020954264246</v>
+        <v>0.2211644095482339</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.9076322074445664</v>
+        <v>0.9123393806959756</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.4690888621413141</v>
+        <v>0.3978742486018904</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.4126599441035323</v>
+        <v>0.4032414015206108</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.2574865645146438</v>
+        <v>0.302392764240779</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.3117483871064028</v>
+        <v>-0.300284901111536</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.01134356367672654</v>
+        <v>0.01296179599267317</v>
       </c>
       <c r="EK6" t="n">
-        <v>-0.03708552107548034</v>
+        <v>-0.03702060798211836</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.3866010914639219</v>
+        <v>0.4564784608674174</v>
       </c>
       <c r="EM6" t="n">
-        <v>-0.06150627876359007</v>
+        <v>-0.08360781766244628</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0.1381653306703529</v>
+        <v>-0.1378676318438682</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.1234663359235041</v>
+        <v>-0.1320751242540276</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.243415461645449</v>
+        <v>0.2616285204325937</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.02626236145672545</v>
+        <v>0.0289382795934821</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.07349000490271639</v>
+        <v>0.06556209584863985</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.2827969303509099</v>
+        <v>0.2533209175838664</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.2513755566988805</v>
+        <v>0.2533502934945123</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0.1379057829735068</v>
+        <v>-0.1373743083095827</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0.09347440504249441</v>
+        <v>-0.1072083813185477</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.05492136754434012</v>
+        <v>0.06339600837229775</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.1095696146957226</v>
+        <v>0.1173533774747813</v>
       </c>
       <c r="EY6" t="n">
-        <v>-0.05101043060231298</v>
+        <v>-0.03070771341783241</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0.1024849090881626</v>
+        <v>-0.07530925241275621</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.04089844987240993</v>
+        <v>0.07432546541224175</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.401785282928045</v>
+        <v>0.4370514429276745</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0.1566755144649077</v>
+        <v>-0.1408737503041936</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.3295201287658606</v>
+        <v>0.3383437156731542</v>
       </c>
       <c r="FE6" t="n">
-        <v>-0.1838408464287548</v>
+        <v>-0.1688059742938982</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.08595411124555652</v>
+        <v>0.1052229919037953</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0.1000604030867767</v>
+        <v>-0.09869336835905794</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.09920382944311591</v>
+        <v>-0.08254576423927457</v>
       </c>
       <c r="FI6" t="n">
-        <v>-0.3019542525798727</v>
+        <v>-0.2940185939954099</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.4526045593497047</v>
+        <v>0.4568812161501737</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.3819245287569052</v>
+        <v>0.3635906989227891</v>
       </c>
       <c r="FL6" t="n">
-        <v>-0.1123220283862877</v>
+        <v>-0.1089549174419373</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.4641877710537233</v>
+        <v>0.2900331235508436</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.4391109916999809</v>
+        <v>0.3821110833626998</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.2263373117261032</v>
+        <v>0.2103224927287404</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.4733513217216655</v>
+        <v>0.4564936505501993</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.09902678985872501</v>
+        <v>0.1084553094738096</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.1033927267796555</v>
+        <v>0.1055537205320826</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.2626102115214073</v>
+        <v>0.2618652344451191</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.1169786924131766</v>
+        <v>0.1242507990662069</v>
       </c>
       <c r="FU6" t="n">
-        <v>-0.1071242352348124</v>
+        <v>-0.08834124330940378</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.1487786261457157</v>
+        <v>0.1644445121708978</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.2593750025106431</v>
+        <v>0.3192087119315174</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.2829047597032361</v>
+        <v>0.3184108497561292</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.1831942182522479</v>
+        <v>0.1831762171510454</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.008262008020687626</v>
+        <v>0.1187775168602874</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.1080665156020981</v>
+        <v>0.1249180681315605</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.3764805680247104</v>
+        <v>0.3758403034134327</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.1699823057746015</v>
+        <v>0.1897641763644599</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.1471557835546846</v>
+        <v>0.1593844219909318</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.2924275934268845</v>
+        <v>0.2932659287469258</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.08382834007092918</v>
+        <v>0.08680812276900901</v>
       </c>
       <c r="GG6" t="n">
-        <v>-0.03469857640913612</v>
+        <v>-0.02828269575306455</v>
       </c>
       <c r="GH6" t="n">
-        <v>-0.1288730039831233</v>
+        <v>-0.1346004195144304</v>
       </c>
       <c r="GI6" t="n">
-        <v>0.2179975600970095</v>
+        <v>0.1929218275772317</v>
       </c>
       <c r="GJ6" t="n">
-        <v>-0.3111506799658923</v>
+        <v>-0.301802530180293</v>
       </c>
       <c r="GK6" t="n">
-        <v>0.1124164243792118</v>
+        <v>0.1654971811907238</v>
       </c>
       <c r="GL6" t="n">
-        <v>0.3032090278034456</v>
+        <v>0.3039166390401002</v>
       </c>
       <c r="GM6" t="n">
-        <v>-0.04461329478362293</v>
+        <v>-0.0493039784515766</v>
       </c>
       <c r="GN6" t="n">
-        <v>-0.03728075443219986</v>
+        <v>-0.03388875565372989</v>
       </c>
       <c r="GO6" t="n">
-        <v>0.1977763059168808</v>
+        <v>0.2041955062637944</v>
       </c>
       <c r="GP6" t="n">
-        <v>-0.02531198546856737</v>
+        <v>-0.008248891978791768</v>
       </c>
       <c r="GQ6" t="n">
-        <v>0.08707784886767679</v>
+        <v>0.1073612156632128</v>
       </c>
       <c r="GR6" t="n">
-        <v>0.08774780947878426</v>
+        <v>0.1078336137370852</v>
       </c>
       <c r="GS6" t="n">
-        <v>-0.1024806973610127</v>
+        <v>-0.06443721252063753</v>
       </c>
       <c r="GT6" t="n">
-        <v>0.1017117299389617</v>
+        <v>0.1087268654664704</v>
       </c>
       <c r="GU6" t="n">
-        <v>-0.05042048097720356</v>
+        <v>-0.04545966100515799</v>
       </c>
       <c r="GV6" t="n">
-        <v>-0.07935155603007432</v>
+        <v>-0.05918539944522085</v>
       </c>
       <c r="GW6" t="n">
-        <v>0.1649902214921783</v>
+        <v>0.1719871909410336</v>
       </c>
       <c r="GX6" t="n">
-        <v>-0.03747807838757267</v>
+        <v>0.01904255140559779</v>
       </c>
       <c r="GY6" t="n">
-        <v>0.01893240991929345</v>
+        <v>0.03458731378339953</v>
       </c>
       <c r="GZ6" t="n">
-        <v>-0.005404045794400667</v>
+        <v>0.01487330085464503</v>
       </c>
       <c r="HA6" t="n">
-        <v>-0.04093475101747129</v>
+        <v>-0.04212255029246959</v>
       </c>
       <c r="HB6" t="n">
-        <v>-0.2580278837132697</v>
+        <v>-0.2527867637764888</v>
       </c>
       <c r="HC6" t="n">
-        <v>-0.1167882091463325</v>
+        <v>-0.1156669206669594</v>
       </c>
       <c r="HD6" t="n">
-        <v>-0.1259120981237272</v>
+        <v>-0.125864970768674</v>
       </c>
       <c r="HE6" t="n">
-        <v>-0.001130528992531691</v>
+        <v>0.01170081187592253</v>
       </c>
       <c r="HF6" t="n">
-        <v>0.05108252958129805</v>
+        <v>0.08787473480992915</v>
       </c>
       <c r="HG6" t="n">
-        <v>-0.04686052083096683</v>
+        <v>-0.04482074222040471</v>
       </c>
       <c r="HH6" t="n">
-        <v>0.0137832857781184</v>
+        <v>0.02471507518352935</v>
       </c>
       <c r="HI6" t="n">
-        <v>-0.06797771398962878</v>
+        <v>-0.01771857915281438</v>
       </c>
       <c r="HJ6" t="n">
-        <v>0.5464063284093017</v>
+        <v>0.5482071517689227</v>
       </c>
       <c r="HK6" t="n">
-        <v>0.1040653037183151</v>
+        <v>0.116168138610719</v>
       </c>
       <c r="HL6" t="n">
-        <v>0.02075940621027016</v>
+        <v>0.04006169374666335</v>
       </c>
       <c r="HM6" t="n">
-        <v>-0.06605361864103104</v>
+        <v>-0.0595100411089631</v>
       </c>
       <c r="HN6" t="n">
-        <v>0.1574775438247089</v>
+        <v>0.1600690689442519</v>
       </c>
       <c r="HO6" t="n">
-        <v>-0.06414980586312069</v>
+        <v>-0.05385665938485931</v>
       </c>
       <c r="HP6" t="n">
-        <v>0.4554241364562371</v>
+        <v>0.4513922712348945</v>
       </c>
       <c r="HQ6" t="n">
-        <v>0.3225230213321677</v>
+        <v>0.2930490205705875</v>
       </c>
       <c r="HR6" t="n">
-        <v>0.5850600143389894</v>
+        <v>0.511435905465835</v>
       </c>
       <c r="HS6" t="n">
-        <v>0.4424874734970621</v>
+        <v>0.4059321773235529</v>
       </c>
       <c r="HT6" t="n">
-        <v>0.190415670395772</v>
+        <v>0.2202722925552783</v>
       </c>
       <c r="HU6" t="n">
-        <v>0.2910821927382653</v>
+        <v>0.2973927240853166</v>
       </c>
       <c r="HV6" t="n">
-        <v>-0.1399453632399946</v>
+        <v>-0.06066630988154098</v>
       </c>
       <c r="HW6" t="n">
-        <v>0.1274973323656978</v>
+        <v>0.1281392874398247</v>
       </c>
       <c r="HX6" t="n">
-        <v>-0.07431755723056369</v>
+        <v>-0.06109794955271934</v>
       </c>
       <c r="HY6" t="n">
-        <v>-0.07850011433782683</v>
+        <v>-0.07825083487239201</v>
       </c>
       <c r="HZ6" t="n">
-        <v>0.1852839721094628</v>
+        <v>0.2101961219803878</v>
       </c>
       <c r="IA6" t="n">
-        <v>-0.03636501900713589</v>
+        <v>-0.03704223579181659</v>
       </c>
       <c r="IB6" t="n">
-        <v>0.1975928298545296</v>
+        <v>0.1396769378052083</v>
       </c>
       <c r="IC6" t="n">
-        <v>0.2673226395295055</v>
+        <v>0.2478968838743489</v>
       </c>
       <c r="ID6" t="n">
-        <v>-0.05158304796836932</v>
+        <v>-0.0008460455124880547</v>
       </c>
       <c r="IE6" t="n">
-        <v>0.02906960310511359</v>
+        <v>0.0340448772433488</v>
       </c>
     </row>
     <row r="7">
@@ -4747,710 +4676,710 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9984110627009222</v>
+        <v>0.6596929671902685</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9106701027838733</v>
+        <v>0.7269587498520592</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1419778161440154</v>
+        <v>0.1607498126883342</v>
       </c>
       <c r="E7" t="n">
-        <v>2.253447584066102e-05</v>
+        <v>1.832346949453015e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>9.136910199647839e-06</v>
+        <v>1.013835309842606e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7938967910380011</v>
+        <v>0.2214063318603529</v>
       </c>
       <c r="H7" t="n">
-        <v>4.892744672117503e-05</v>
+        <v>4.106696369689921e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6018577075318197</v>
+        <v>0.6027737222378582</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7302565903835133</v>
+        <v>0.9299556237996184</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9732979590821733</v>
+        <v>0.903534464044272</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6683793437404061</v>
+        <v>0.8631138557115906</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3799026430236097</v>
+        <v>0.3339970427514682</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9240033755451317</v>
+        <v>0.9273037931436907</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6910047928030247</v>
+        <v>0.6888927129754085</v>
       </c>
       <c r="P7" t="n">
-        <v>0.415600609598218</v>
+        <v>0.4161303490914053</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01350217328074826</v>
+        <v>0.008749051247540064</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9739896019931387</v>
+        <v>0.9677406883441805</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05656264870843422</v>
+        <v>0.04559119735246926</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6904708046989521</v>
+        <v>0.5836827834195079</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4083655210468053</v>
+        <v>0.4718606045307374</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2574738650978536</v>
+        <v>0.3768099321904775</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9561830156021415</v>
+        <v>0.2834964563268763</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6753768640193074</v>
+        <v>0.5475969023026619</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3714300178044608</v>
+        <v>0.3209613856906254</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.749955996359874</v>
+        <v>0.7725503548674167</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.739890336815431e-05</v>
+        <v>7.239684595110921e-06</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0002089662189304395</v>
+        <v>0.0002021413378789961</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.4221736767880161</v>
+        <v>0.4859244104791133</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.02506757103179005</v>
+        <v>0.02848478094842899</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.7354669752499737</v>
+        <v>0.7518174664799313</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.7820178996570381</v>
+        <v>0.8878781721656674</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.4618618902640103</v>
+        <v>0.4615408494790929</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.07466821200637516</v>
+        <v>0.06454650244101771</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.3682209525650222</v>
+        <v>0.3419532567978996</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.03102222050059814</v>
+        <v>0.04097354828450702</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.6181379297296756</v>
+        <v>0.7262808268730214</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.04692599027414805</v>
+        <v>0.05150526957316034</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.8403324006701107</v>
+        <v>0.807808473269122</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.009859187006925448</v>
+        <v>0.01439859340553985</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.5410461919780529</v>
+        <v>0.5418603409554592</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.8272218775487259</v>
+        <v>0.6844358071264555</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.1380572678445333</v>
+        <v>0.2119703209290763</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0003945592552289304</v>
+        <v>0.0003882035851890913</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.3786863908259176</v>
+        <v>0.4325299035699048</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.09576507837667858</v>
+        <v>0.09555069321712976</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.5176062704304869</v>
+        <v>0.08497831992592594</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.4621612289066694</v>
+        <v>0.4503438530827906</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.211529149635385</v>
+        <v>0.2118285051189092</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.8950203631370981</v>
+        <v>0.9298692019792369</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.006117307944364584</v>
+        <v>0.00768434194286155</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.09544331341823035</v>
+        <v>0.110257152566659</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.005221492260271121</v>
+        <v>0.00597844780178698</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.541270388736337</v>
+        <v>0.5535974018022599</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="n">
-        <v>0.05314645299926235</v>
+        <v>0.0544190230239335</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.1804887202191102</v>
+        <v>0.2182660298775345</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.002543831668567537</v>
+        <v>0.003353887117309462</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.009905918326500162</v>
+        <v>0.01010789817277688</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.2562057591128295</v>
+        <v>0.224886851361207</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0005951135026989744</v>
+        <v>0.0005711236028693453</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.04133119052953437</v>
+        <v>0.03468600043046142</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.545725935055303</v>
+        <v>0.5454123768386042</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.5273424176327454</v>
+        <v>0.4808760115141901</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.03911370821874206</v>
+        <v>0.03906068974818534</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.8573995931537224</v>
+        <v>0.8375454560479123</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.002298432961819442</v>
+        <v>0.01713432927881221</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.6174223878261744</v>
+        <v>0.618113340214935</v>
       </c>
       <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="n">
-        <v>0.4549293043937291</v>
+        <v>0.4705053491207017</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.1050492899088544</v>
+        <v>0.1665174266767974</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.2179812263096632</v>
+        <v>0.2279731101962473</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.3861802080728111</v>
+        <v>0.3916868604899499</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.08450110596872554</v>
+        <v>0.06400619548064981</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.1389776294668384</v>
+        <v>0.1275492260766334</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.07564103009644034</v>
+        <v>0.1087028265159633</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.1908341425931025</v>
+        <v>0.1815126514641401</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.07418398889187339</v>
+        <v>0.08939335209922447</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.06007524205986345</v>
+        <v>0.06196132739270551</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.7397267749104013</v>
+        <v>0.7398218694286089</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.3727329277969014</v>
+        <v>0.3717651866547905</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.1812644635321174</v>
+        <v>0.1812590454312469</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.6068196467959985</v>
+        <v>0.6044456332895316</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.2541259710181886</v>
+        <v>0.2538523217848129</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.8985456088423087</v>
+        <v>0.8628570522039229</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.192480512069695e-05</v>
+        <v>5.910912731676963e-05</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.7060988943980264</v>
+        <v>0.676194953873881</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.3764580619036471</v>
+        <v>0.3723243501937021</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.452319714130644</v>
+        <v>0.4504201170514752</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.9102565163330714</v>
+        <v>0.9775846656722673</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.4130357603490666</v>
+        <v>0.4317421160231306</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.03398542601344531</v>
+        <v>0.02863318406708197</v>
       </c>
       <c r="CO7" t="inlineStr"/>
       <c r="CP7" t="n">
-        <v>0.3143521904568619</v>
+        <v>0.2900815532713972</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.09639848350712883</v>
+        <v>0.08133582247639513</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.9614991116559689</v>
+        <v>0.8581681626121815</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.4043476695881684</v>
+        <v>0.3576071093186747</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.6819481992397582</v>
+        <v>0.7189267125859372</v>
       </c>
       <c r="CU7" t="inlineStr"/>
       <c r="CV7" t="n">
-        <v>0.9179223306869151</v>
+        <v>0.9185707049922116</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.5690434720752785</v>
+        <v>0.5599267765777175</v>
       </c>
       <c r="CX7" t="n">
-        <v>3.051154252538155e-05</v>
+        <v>4.450855037338385e-05</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0001687374226275835</v>
+        <v>0.000707974372717607</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.6772663765857887</v>
+        <v>0.6943266414029297</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.6699674376778526</v>
+        <v>0.6783382773835103</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.08657450637856318</v>
+        <v>0.08658115823860164</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.07389697222177055</v>
+        <v>0.04226334650449416</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.5791517129671995</v>
+        <v>0.5790176967596203</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.07135492073931857</v>
+        <v>0.07084338269269833</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.9587040861814193</v>
+        <v>0.6587778234891764</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.5381806906764107</v>
+        <v>0.5523023169487439</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.6627799070708229</v>
+        <v>0.7594830987906217</v>
       </c>
       <c r="DI7" t="n">
         <v>0</v>
       </c>
       <c r="DJ7" t="n">
-        <v>5.666572849970177e-05</v>
+        <v>0.0003630014647737378</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.82664172184356</v>
+        <v>0.8274370620460483</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.2444898217838395</v>
+        <v>0.1177195775059422</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.136962133119918</v>
+        <v>0.1169662244908798</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.4178114208869309</v>
+        <v>0.454719926979001</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.966315400411438</v>
+        <v>0.9886349404379875</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.9896617595796362</v>
+        <v>0.8167075262100316</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.3489867837460794</v>
+        <v>0.3661791032279307</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.3672021253416611</v>
+        <v>0.36350493381093</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.06785320495495649</v>
+        <v>0.07606631874819123</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.3393731413643859</v>
+        <v>0.3440663159336065</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.1486833960222575</v>
+        <v>0.154703963207682</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.2526200622972538</v>
+        <v>0.2538956577250562</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.3764321247197283</v>
+        <v>0.3740126724466452</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.2713155972953278</v>
+        <v>0.2798167189372162</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.7425159932674578</v>
+        <v>0.7422063738423885</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.9976555810169783</v>
+        <v>0.9489804665233553</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.2082851368272726</v>
+        <v>0.1569999321419686</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.7616816160150447</v>
+        <v>0.7557913998116352</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.0001027472164501414</v>
+        <v>0.0001083108830212692</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0003680832041771225</v>
+        <v>0.126719706139598</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.2757759569298447</v>
+        <v>0.2685481632076722</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.0006740990429292806</v>
+        <v>0.004638284930836133</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.003559745174317001</v>
+        <v>0.004485221394567108</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.3957174095742789</v>
+        <v>0.3152806902196885</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.3239208744672234</v>
+        <v>0.3429579563173355</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.9500427404386651</v>
+        <v>0.9429268616214499</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.8299747395109007</v>
+        <v>0.8302680126544872</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.2401925674591695</v>
+        <v>0.1581512316069322</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.921737177835424</v>
+        <v>0.8936713728997923</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.4081037648764957</v>
+        <v>0.4091243767182865</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.4302343868108274</v>
+        <v>0.3985234266934689</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.1203339251285129</v>
+        <v>0.09419521898287775</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.9665655670477014</v>
+        <v>0.9631597812430287</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.906513913498866</v>
+        <v>0.9165835877735701</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.04896801346405921</v>
+        <v>0.07904726618450113</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.09195547906277476</v>
+        <v>0.08934599068982955</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.3898778810193255</v>
+        <v>0.3917250222202506</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.5461675384348751</v>
+        <v>0.4885180650704366</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.7138726217505182</v>
+        <v>0.6720442053882334</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.5009246562490862</v>
+        <v>0.4708048041166082</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.7277787348696192</v>
+        <v>0.8340936717443109</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.4882164387031057</v>
+        <v>0.6109430042784428</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.784891876121826</v>
+        <v>0.6195300796738062</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.1954373739301457</v>
+        <v>0.1554046711240519</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.2875772089415091</v>
+        <v>0.3395529925121847</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.02533379354900435</v>
+        <v>0.02145398904924548</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.2110053118231626</v>
+        <v>0.2514032588870059</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.5570460482191084</v>
+        <v>0.4718035786745634</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.4986175875621908</v>
+        <v>0.504531988113148</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.4976602121252929</v>
+        <v>0.572844315424617</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.04140310632326202</v>
+        <v>0.04733049039562873</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.003363640004054746</v>
+        <v>0.003040661239201809</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.0067699889928589</v>
+        <v>0.01022918141699479</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.4422536537738918</v>
+        <v>0.4561397706170336</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.0007803921231145425</v>
+        <v>0.04322784996384064</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.001597091993098561</v>
+        <v>0.00674081463651547</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.11785711756375</v>
+        <v>0.1469102279159034</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.0005924432423893736</v>
+        <v>0.0009778140705515156</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.5486537461909737</v>
+        <v>0.5110461005274342</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.5093919407841507</v>
+        <v>0.5005327487073972</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.1274858483776752</v>
+        <v>0.1286090132808125</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.4722323265432646</v>
+        <v>0.4449389648792804</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.4637879838421655</v>
+        <v>0.54610506353574</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.3351194389473419</v>
+        <v>0.286115599438641</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.4692719861442319</v>
+        <v>0.3686362031228148</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.2140059071183344</v>
+        <v>0.1595098116562009</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.2076875417945182</v>
+        <v>0.2077329825401275</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.9607361022247513</v>
+        <v>0.477545903956939</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.4798113675832485</v>
+        <v>0.4135828634283265</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.5322275558382508</v>
+        <v>0.5329828925579959</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.2533306879254873</v>
+        <v>0.2014006324543723</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.3404770579023343</v>
+        <v>0.3014049352997449</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.1104042492428861</v>
+        <v>0.1093397825623029</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.5668752594379576</v>
+        <v>0.5531199956472921</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.8148822047752431</v>
+        <v>0.8486656711453812</v>
       </c>
       <c r="GH7" t="n">
-        <v>0.3775006100469523</v>
+        <v>0.3564841194062168</v>
       </c>
       <c r="GI7" t="n">
-        <v>0.6386465452218133</v>
+        <v>0.6785464037059644</v>
       </c>
       <c r="GJ7" t="n">
-        <v>0.0295430203297876</v>
+        <v>0.03507445947534641</v>
       </c>
       <c r="GK7" t="n">
-        <v>0.4418677648996857</v>
+        <v>0.2557759868897799</v>
       </c>
       <c r="GL7" t="n">
-        <v>0.03419131830931475</v>
+        <v>0.03375400944214814</v>
       </c>
       <c r="GM7" t="n">
-        <v>0.7608363329202761</v>
+        <v>0.7365519178751025</v>
       </c>
       <c r="GN7" t="n">
-        <v>0.8193455730403973</v>
+        <v>0.8355456982551963</v>
       </c>
       <c r="GO7" t="n">
-        <v>0.2212125474388814</v>
+        <v>0.2062801240302623</v>
       </c>
       <c r="GP7" t="n">
-        <v>0.8629364342094599</v>
+        <v>0.9551406361494954</v>
       </c>
       <c r="GQ7" t="n">
-        <v>0.5561899857017411</v>
+        <v>0.4676446240730969</v>
       </c>
       <c r="GR7" t="n">
-        <v>0.5711279194071359</v>
+        <v>0.4859711133490554</v>
       </c>
       <c r="GS7" t="n">
-        <v>0.4882344083834403</v>
+        <v>0.6634761063554502</v>
       </c>
       <c r="GT7" t="n">
-        <v>0.486799143346116</v>
+        <v>0.4570887653213072</v>
       </c>
       <c r="GU7" t="n">
-        <v>0.7336066268247117</v>
+        <v>0.758987744252217</v>
       </c>
       <c r="GV7" t="n">
-        <v>0.5878340940753876</v>
+        <v>0.6862443168256631</v>
       </c>
       <c r="GW7" t="n">
-        <v>0.3089657405254393</v>
+        <v>0.2886069096364386</v>
       </c>
       <c r="GX7" t="n">
-        <v>0.8114141307976104</v>
+        <v>0.9035312916331739</v>
       </c>
       <c r="GY7" t="n">
-        <v>0.8972649551069679</v>
+        <v>0.8134857767954267</v>
       </c>
       <c r="GZ7" t="n">
-        <v>0.9709206371850907</v>
+        <v>0.9200787792851932</v>
       </c>
       <c r="HA7" t="n">
-        <v>0.7823604215429317</v>
+        <v>0.7762056955282155</v>
       </c>
       <c r="HB7" t="n">
-        <v>0.07345150949065968</v>
+        <v>0.0797029192323354</v>
       </c>
       <c r="HC7" t="n">
-        <v>0.4292272850832677</v>
+        <v>0.4337015952082465</v>
       </c>
       <c r="HD7" t="n">
-        <v>0.4043929901702052</v>
+        <v>0.4045703186844289</v>
       </c>
       <c r="HE7" t="n">
-        <v>0.994119321184992</v>
+        <v>0.9391921876836634</v>
       </c>
       <c r="HF7" t="n">
-        <v>0.7302399063164478</v>
+        <v>0.5525678753128881</v>
       </c>
       <c r="HG7" t="n">
-        <v>0.7598543706762886</v>
+        <v>0.7700168936842797</v>
       </c>
       <c r="HH7" t="n">
-        <v>0.9283957543858914</v>
+        <v>0.8719730450283993</v>
       </c>
       <c r="HI7" t="n">
-        <v>0.6498227799471799</v>
+        <v>0.9059007191620714</v>
       </c>
       <c r="HJ7" t="n">
-        <v>0.06604317581740737</v>
+        <v>0.06497634750693283</v>
       </c>
       <c r="HK7" t="n">
-        <v>0.5014260630512106</v>
+        <v>0.4526907769708851</v>
       </c>
       <c r="HL7" t="n">
-        <v>0.8886211213900181</v>
+        <v>0.7868927128119156</v>
       </c>
       <c r="HM7" t="n">
-        <v>0.6555556948330945</v>
+        <v>0.687841500940266</v>
       </c>
       <c r="HN7" t="n">
-        <v>0.2798547532056793</v>
+        <v>0.2719161425179642</v>
       </c>
       <c r="HO7" t="n">
-        <v>0.6614530745358929</v>
+        <v>0.7132227644928264</v>
       </c>
       <c r="HP7" t="n">
-        <v>0.001008535848338775</v>
+        <v>0.001132271525022713</v>
       </c>
       <c r="HQ7" t="n">
-        <v>0.0423838651783618</v>
+        <v>0.06648267305488229</v>
       </c>
       <c r="HR7" t="n">
-        <v>1.010280356919283e-05</v>
+        <v>0.0001729223070796662</v>
       </c>
       <c r="HS7" t="n">
-        <v>0.001454825027785966</v>
+        <v>0.003804842969862103</v>
       </c>
       <c r="HT7" t="n">
-        <v>0.1900172081842936</v>
+        <v>0.1282975897982799</v>
       </c>
       <c r="HU7" t="n">
-        <v>0.06841350165301897</v>
+        <v>0.06237109032497436</v>
       </c>
       <c r="HV7" t="n">
-        <v>0.3536097826685406</v>
+        <v>0.6887848864629049</v>
       </c>
       <c r="HW7" t="n">
-        <v>0.3826564307258596</v>
+        <v>0.380245298568732</v>
       </c>
       <c r="HX7" t="n">
-        <v>0.6156604770295566</v>
+        <v>0.6799533767373038</v>
       </c>
       <c r="HY7" t="n">
-        <v>0.5958705264781224</v>
+        <v>0.5970421117263314</v>
       </c>
       <c r="HZ7" t="n">
-        <v>0.2073817582029022</v>
+        <v>0.1515806432393505</v>
       </c>
       <c r="IA7" t="n">
-        <v>0.8082587270999481</v>
+        <v>0.8047570683453895</v>
       </c>
       <c r="IB7" t="n">
-        <v>0.1735439145618104</v>
+        <v>0.3384657270813677</v>
       </c>
       <c r="IC7" t="n">
-        <v>0.06332480825773153</v>
+        <v>0.08590571009160104</v>
       </c>
       <c r="ID7" t="n">
-        <v>0.7394857571215359</v>
+        <v>0.9956511791384033</v>
       </c>
       <c r="IE7" t="n">
-        <v>0.8428291547400594</v>
+        <v>0.8163599570695581</v>
       </c>
     </row>
     <row r="8">
@@ -5460,710 +5389,710 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04736219841003821</v>
+        <v>0.04889673572384795</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01332490564960369</v>
+        <v>0.01352167433770425</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02622619131261721</v>
+        <v>0.03650193035127012</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03932079632992026</v>
+        <v>0.03966952085133259</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01856871695587717</v>
+        <v>0.01896407706191938</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02144786040051113</v>
+        <v>0.02428956301034608</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09843316744887469</v>
+        <v>0.09806811509307095</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08099914185460191</v>
+        <v>0.08146802649169638</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01466870697690965</v>
+        <v>0.01553437254960057</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05822753058413547</v>
+        <v>0.058281726754154</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01612085739501406</v>
+        <v>0.01749872425761386</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1252841462417964</v>
+        <v>0.1264518383910353</v>
       </c>
       <c r="N8" t="n">
-        <v>1.902649184356273</v>
+        <v>1.905571647904129</v>
       </c>
       <c r="O8" t="n">
-        <v>8.02760907910012</v>
+        <v>8.024774905445947</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6484537129477025</v>
+        <v>0.6490646121593396</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02316255312639237</v>
+        <v>0.02350960861594988</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3431229784116194</v>
+        <v>0.3459392715417359</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02433688990965848</v>
+        <v>0.02478687808769611</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08303476387036202</v>
+        <v>0.08466450353548959</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04272539509526435</v>
+        <v>0.04313188818971499</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02362988964447561</v>
+        <v>0.02512895959628679</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03771011758398889</v>
+        <v>0.04096248961272972</v>
       </c>
       <c r="X8" t="n">
-        <v>0.009878814152980326</v>
+        <v>0.0109360784305046</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0800275037097772</v>
+        <v>0.07984226469175262</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.07352955114330798</v>
+        <v>0.07478591660809816</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.02129779882547405</v>
+        <v>0.0229995907019482</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2251994382077309</v>
+        <v>0.2258567927482854</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0123825959248649</v>
+        <v>0.01240383483357926</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.03590628440998344</v>
+        <v>0.03595793394517189</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0747118938973531</v>
+        <v>0.07517935158578477</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.02093609446798634</v>
+        <v>0.02118372185731037</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.5832041054354813</v>
+        <v>0.5834601254917726</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.02236533813158426</v>
+        <v>0.02289550949084295</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.009647993060968587</v>
+        <v>0.01107901808730008</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.05111312501266729</v>
+        <v>0.05168881327780016</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.009303461867307992</v>
+        <v>0.009659088199583471</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.04295847878564352</v>
+        <v>0.04296344782126769</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.05781592909534043</v>
+        <v>0.05859795266989253</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.01991842774277587</v>
+        <v>0.02062090942431694</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.7124326709804626</v>
+        <v>0.7128782805598708</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.010673051449597</v>
+        <v>0.01155993356078401</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.03354536803615478</v>
+        <v>0.03394635750513492</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.1568591163503768</v>
+        <v>0.1568547774676206</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.01319802447041439</v>
+        <v>0.01321180843997828</v>
       </c>
       <c r="AT8" t="n">
-        <v>12.15671972302481</v>
+        <v>12.15452318560774</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.1861629959855551</v>
+        <v>4.64571165402885e+17</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.4115020751968237</v>
+        <v>0.4119411765718151</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.5922052798547014</v>
+        <v>0.591130385230229</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.1335723383926004</v>
+        <v>0.1378161734906108</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.04963879040617781</v>
+        <v>0.05132049424961241</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.04780563032215779</v>
+        <v>0.05082850589901081</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.03256011019261355</v>
+        <v>0.03351520861602623</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.06522056181186998</v>
+        <v>0.06979500293934258</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="n">
-        <v>0.1546795889486311</v>
+        <v>0.1547322447532688</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.02979941002467126</v>
+        <v>0.03307199706379153</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.04660231032167499</v>
+        <v>0.04912672657730473</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.09128606513986547</v>
+        <v>0.09178274011525475</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.1080790631346883</v>
+        <v>0.1090990482940423</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.03318683673702685</v>
+        <v>0.03389298747467634</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.03701334615608095</v>
+        <v>0.03446553645313059</v>
       </c>
       <c r="BK8" t="n">
-        <v>3.749018868469732</v>
+        <v>3.749552923353948</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.02746728986551917</v>
+        <v>0.02798580080476406</v>
       </c>
       <c r="BM8" t="n">
-        <v>2.237082500483638</v>
+        <v>2.237278697176454</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.03750463391705988</v>
+        <v>0.03829160932327531</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.005408833073815898</v>
+        <v>0.007219669829296445</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.774030953009659</v>
+        <v>0.769927757683873</v>
       </c>
       <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="n">
-        <v>0.2033035469470321</v>
+        <v>0.2074968954994802</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.01260767964421669</v>
+        <v>0.0173252437949526</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.04610642538076447</v>
+        <v>0.0502684559421935</v>
       </c>
       <c r="BU8" t="n">
-        <v>5.685541885619375</v>
+        <v>5.684732369348282</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.09505803758870629</v>
+        <v>0.09693125756257405</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.02544834109239105</v>
+        <v>0.02717289851980923</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.02959674335196934</v>
+        <v>0.03369472675213279</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.02041267141990147</v>
+        <v>0.02245431580941436</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.01750411768059254</v>
+        <v>0.0194692941070414</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.1457945272539993</v>
+        <v>0.1474533045685872</v>
       </c>
       <c r="CB8" t="n">
-        <v>48.66085805120035</v>
+        <v>48.66268373596143</v>
       </c>
       <c r="CC8" t="n">
-        <v>8.93790681542972</v>
+        <v>8.932984041555759</v>
       </c>
       <c r="CD8" t="n">
-        <v>157.448091015621</v>
+        <v>157.4707483764789</v>
       </c>
       <c r="CE8" t="n">
-        <v>4.393721261403584</v>
+        <v>4.393235509104783</v>
       </c>
       <c r="CF8" t="n">
-        <v>2.458814252488445</v>
+        <v>2.459177040112066</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.02860498593169847</v>
+        <v>0.02724702822516002</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.009429085914725951</v>
+        <v>0.01083269749276363</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.04041126996026313</v>
+        <v>0.05327134455584107</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.3247363598868836</v>
+        <v>0.3247819017168224</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.1047867205099544</v>
+        <v>0.1049722725910457</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.009203640959857028</v>
+        <v>0.01025355774729381</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.01408696406385027</v>
+        <v>0.01491838945680668</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.07427484033682961</v>
+        <v>0.0768227594363237</v>
       </c>
       <c r="CO8" t="inlineStr"/>
       <c r="CP8" t="n">
-        <v>0.01873664606465157</v>
+        <v>0.01838040983605236</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.2422586242770527</v>
+        <v>0.2397710954998179</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.01036412639074751</v>
+        <v>0.01191706267314039</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.02304259788028262</v>
+        <v>0.02382971484469737</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.1064870793322074</v>
+        <v>0.1068251444653289</v>
       </c>
       <c r="CU8" t="inlineStr"/>
       <c r="CV8" t="n">
-        <v>0.1977075892908646</v>
+        <v>0.2046921593195304</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.9306178561123409</v>
+        <v>0.9299812902565634</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.01689706053954118</v>
+        <v>0.01776243474138266</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.008083085691974789</v>
+        <v>0.008861613604757896</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.01942820053383485</v>
+        <v>0.01950240354625935</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.1363788719953124</v>
+        <v>0.1413785517271005</v>
       </c>
       <c r="DB8" t="n">
-        <v>55.69247782002302</v>
+        <v>57.63754873989242</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.012072559375744</v>
+        <v>0.01196451597079654</v>
       </c>
       <c r="DD8" t="n">
-        <v>2.839981366235648</v>
+        <v>2.840941114089005</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.07282590483349818</v>
+        <v>0.07284652158173598</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.03620900192963527</v>
+        <v>0.03711451509870847</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.02692514409253886</v>
+        <v>0.02896445052791544</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.07572688561123228</v>
+        <v>0.08173901793648877</v>
       </c>
       <c r="DI8" t="n">
         <v>0</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.004492540951953505</v>
+        <v>0.005285369886195955</v>
       </c>
       <c r="DK8" t="n">
-        <v>10.73908524081141</v>
+        <v>10.74912808519703</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.05717987589237099</v>
+        <v>0.06171434636914488</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.02949799942248202</v>
+        <v>0.03010068623610141</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.01439787786443714</v>
+        <v>0.01489176501977896</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.02397825437979799</v>
+        <v>0.02479596079735508</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.008516633617040659</v>
+        <v>0.009956489820845514</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.04670296016691745</v>
+        <v>0.04752764126473216</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.07997353125330933</v>
+        <v>0.08010338810684332</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.06347770614530965</v>
+        <v>0.06427702936895487</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.07136548960528967</v>
+        <v>0.07410975932592426</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.1144461638493759</v>
+        <v>0.1175404243252184</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.513348714804889</v>
+        <v>0.5148719821629762</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.1327636205417732</v>
+        <v>0.1328877884211665</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.02895079650102517</v>
+        <v>0.0294929336807922</v>
       </c>
       <c r="DY8" t="n">
-        <v>1.008596632668788</v>
+        <v>1.011145584886221</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.2121981754342633</v>
+        <v>0.2484114303414196</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.2507248530902109</v>
+        <v>0.2651202166353791</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.05140879914765611</v>
+        <v>0.05134430754684194</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.02214245791744782</v>
+        <v>0.02261292985860235</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.004598892664484407</v>
+        <v>0.005005678167958348</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.02726557524496172</v>
+        <v>0.02627809858265591</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.007126271398478602</v>
+        <v>0.008486320769310229</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.02670410138700199</v>
+        <v>0.02742670103569312</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.0958790899245802</v>
+        <v>0.1057257517289617</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.1571572831989538</v>
+        <v>0.1598731218460799</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.01251273929654213</v>
+        <v>0.02647399889256476</v>
       </c>
       <c r="EK8" t="n">
-        <v>7.190341258181988</v>
+        <v>7.923697594737004</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.08384886291164929</v>
+        <v>0.1151992125889738</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.154912919231192</v>
+        <v>0.1582523237369416</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.422613923891364</v>
+        <v>0.4226777732411797</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0257084790500365</v>
+        <v>0.0264521739839936</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.04033789811085094</v>
+        <v>0.04066101632360836</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.9057189625081787</v>
+        <v>0.9096956148762541</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.07161031626290611</v>
+        <v>0.07659417108834808</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.005769292952732721</v>
+        <v>0.006118091698439658</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.01725083766849157</v>
+        <v>0.01749426357164884</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.2707227623855628</v>
+        <v>0.2708883739239171</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.02765571613811211</v>
+        <v>0.02834610650708498</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.05902455741214811</v>
+        <v>0.06137379196911139</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.04944791369249509</v>
+        <v>0.05025286478717138</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.01584953916967083</v>
+        <v>0.01658575120334627</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.01433494512855614</v>
+        <v>0.01550628640465899</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.02350660109456335</v>
+        <v>0.02409119243203478</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.1805325463611315</v>
+        <v>0.1789454906365058</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.009101992887098585</v>
+        <v>0.01010643776288155</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.02293856602615485</v>
+        <v>0.02345640988063757</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.01283131651432801</v>
+        <v>0.01184098583459471</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.009785075982851936</v>
+        <v>0.01102134968019607</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.04800930396028345</v>
+        <v>0.04904755709775514</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.01128362224769746</v>
+        <v>0.01146375884460735</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.03244838472090827</v>
+        <v>0.03255049486172344</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.02485587061295496</v>
+        <v>0.02526976371352787</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.004712608185975834</v>
+        <v>0.004957421934642089</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.01587286959119491</v>
+        <v>0.01601563351554161</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.003640275853416179</v>
+        <v>0.005728634378456392</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.005169795287072847</v>
+        <v>0.005984989030891034</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.004506858846577371</v>
+        <v>0.004622779805513308</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.04159435473720575</v>
+        <v>0.04175155854570838</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.1620007915780719</v>
+        <v>0.1620529560223211</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.23486132063773</v>
+        <v>0.2356069199655973</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.1921369687657706</v>
+        <v>0.1931263558403955</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.05599077117384098</v>
+        <v>0.05660691368100605</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.01715772203839739</v>
+        <v>0.01762591110654756</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.02983901654879682</v>
+        <v>0.03046018508673775</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.2163911325378858</v>
+        <v>0.2119408786465171</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.03868062829890671</v>
+        <v>0.03907028778775665</v>
       </c>
       <c r="FY8" t="n">
-        <v>11.1915273558073</v>
+        <v>11.19197424518901</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.08531956424317701</v>
+        <v>0.2836573470839124</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.02821985696345583</v>
+        <v>0.02882579961046899</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.2732172032100553</v>
+        <v>0.2820106844738734</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.02824898498592433</v>
+        <v>0.02873169000771701</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.01466624868619685</v>
+        <v>0.01558590490708012</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.2241891912511259</v>
+        <v>0.225158318485857</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.0145525452665262</v>
+        <v>0.01444458130116368</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.04787661286005489</v>
+        <v>0.04608474729457508</v>
       </c>
       <c r="GH8" t="n">
-        <v>0.07962116846023941</v>
+        <v>0.08146445687067357</v>
       </c>
       <c r="GI8" t="n">
-        <v>0.1973869607241606</v>
+        <v>0.2029900314377317</v>
       </c>
       <c r="GJ8" t="n">
-        <v>0.07327886392665882</v>
+        <v>0.07460862298967287</v>
       </c>
       <c r="GK8" t="n">
-        <v>0.00948595476522463</v>
+        <v>0.009980984765242772</v>
       </c>
       <c r="GL8" t="n">
-        <v>0.3285505730677928</v>
+        <v>0.3264900546598239</v>
       </c>
       <c r="GM8" t="n">
-        <v>0.0455508665677409</v>
+        <v>0.04493021641331863</v>
       </c>
       <c r="GN8" t="n">
-        <v>0.5043606225440451</v>
+        <v>0.5083937484801622</v>
       </c>
       <c r="GO8" t="n">
-        <v>0.02512823789297491</v>
+        <v>0.0261339215978466</v>
       </c>
       <c r="GP8" t="n">
-        <v>0.01351882796667904</v>
+        <v>0.01406808994908712</v>
       </c>
       <c r="GQ8" t="n">
-        <v>0.004160659817778729</v>
+        <v>0.00392029736953267</v>
       </c>
       <c r="GR8" t="n">
-        <v>0.009243267137198351</v>
+        <v>0.009568762790415877</v>
       </c>
       <c r="GS8" t="n">
-        <v>0.00873482193793898</v>
+        <v>0.008509841701777482</v>
       </c>
       <c r="GT8" t="n">
-        <v>0.007757282923683123</v>
+        <v>0.008933550759580371</v>
       </c>
       <c r="GU8" t="n">
-        <v>0.02331893760471105</v>
+        <v>0.02424219927444018</v>
       </c>
       <c r="GV8" t="n">
-        <v>0.007522133604385898</v>
+        <v>0.00771572307197388</v>
       </c>
       <c r="GW8" t="n">
-        <v>0.0425079939309242</v>
+        <v>0.0432324482065026</v>
       </c>
       <c r="GX8" t="n">
-        <v>0.00617030913150723</v>
+        <v>0.007729550581271165</v>
       </c>
       <c r="GY8" t="n">
-        <v>0.01387380639747141</v>
+        <v>0.01451261321574924</v>
       </c>
       <c r="GZ8" t="n">
-        <v>0.01153583550702624</v>
+        <v>0.01266726431279593</v>
       </c>
       <c r="HA8" t="n">
-        <v>0.009111000073316082</v>
+        <v>0.009804447499948431</v>
       </c>
       <c r="HB8" t="n">
-        <v>0.03561580076922316</v>
+        <v>0.03573060402186867</v>
       </c>
       <c r="HC8" t="n">
-        <v>0.03064607242180126</v>
+        <v>0.03057989093890158</v>
       </c>
       <c r="HD8" t="n">
-        <v>9.816463533429367</v>
+        <v>9.816409848731267</v>
       </c>
       <c r="HE8" t="n">
-        <v>0.01331673003713719</v>
+        <v>0.0136818718258445</v>
       </c>
       <c r="HF8" t="n">
-        <v>0.005905939577889929</v>
+        <v>0.006465792288413375</v>
       </c>
       <c r="HG8" t="n">
-        <v>0.2987206946133198</v>
+        <v>0.2986832395005722</v>
       </c>
       <c r="HH8" t="n">
-        <v>0.04549266722907686</v>
+        <v>0.04672983829255837</v>
       </c>
       <c r="HI8" t="n">
-        <v>0.01151203124797492</v>
+        <v>0.01242701581914605</v>
       </c>
       <c r="HJ8" t="n">
-        <v>0.07540303908318718</v>
+        <v>0.07642429866714745</v>
       </c>
       <c r="HK8" t="n">
-        <v>0.01533757081928639</v>
+        <v>0.01583200441003649</v>
       </c>
       <c r="HL8" t="n">
-        <v>0.009782165192362777</v>
+        <v>0.01052248420285755</v>
       </c>
       <c r="HM8" t="n">
-        <v>0.01073490897441605</v>
+        <v>0.01058900268035055</v>
       </c>
       <c r="HN8" t="n">
-        <v>0.008549697433121931</v>
+        <v>0.009643069874593907</v>
       </c>
       <c r="HO8" t="n">
-        <v>0.009772182253395302</v>
+        <v>0.009889936214749651</v>
       </c>
       <c r="HP8" t="n">
-        <v>0.002862115716753638</v>
+        <v>0.002790194849647285</v>
       </c>
       <c r="HQ8" t="n">
-        <v>0.00622319771910747</v>
+        <v>0.006121561407812714</v>
       </c>
       <c r="HR8" t="n">
-        <v>0.004334590734599617</v>
+        <v>0.005119510523219712</v>
       </c>
       <c r="HS8" t="n">
-        <v>0.003274258947346361</v>
+        <v>0.003409566430490876</v>
       </c>
       <c r="HT8" t="n">
-        <v>0.007699403566315171</v>
+        <v>0.008313971495871582</v>
       </c>
       <c r="HU8" t="n">
-        <v>0.03528160882732716</v>
+        <v>0.03589435376531794</v>
       </c>
       <c r="HV8" t="n">
-        <v>0.006453409445744651</v>
+        <v>0.0077582980467247</v>
       </c>
       <c r="HW8" t="n">
-        <v>0.007547224925048948</v>
+        <v>0.007872794505625497</v>
       </c>
       <c r="HX8" t="n">
-        <v>0.02985578331842884</v>
+        <v>0.02971085613711635</v>
       </c>
       <c r="HY8" t="n">
-        <v>0.02492387306548303</v>
+        <v>0.02485531682281367</v>
       </c>
       <c r="HZ8" t="n">
-        <v>0.005219438191815099</v>
+        <v>0.005582467755972293</v>
       </c>
       <c r="IA8" t="n">
-        <v>0.007035491042332989</v>
+        <v>0.007713460959889551</v>
       </c>
       <c r="IB8" t="n">
-        <v>0.005014779381659236</v>
+        <v>0.007780939929344094</v>
       </c>
       <c r="IC8" t="n">
-        <v>0.007288079369728754</v>
+        <v>0.008357425905101325</v>
       </c>
       <c r="ID8" t="n">
-        <v>0.0131869382560773</v>
+        <v>0.01401077395100334</v>
       </c>
       <c r="IE8" t="n">
-        <v>0.007428064854693829</v>
+        <v>0.007609715058713833</v>
       </c>
     </row>
     <row r="9">
@@ -6173,718 +6102,718 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.330716107644405e-08</v>
+        <v>0.004551551089444762</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002706433052305383</v>
+        <v>0.002618395872288687</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1582526701058211</v>
+        <v>0.1454372524290478</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3726650518231697</v>
+        <v>0.3790444312338524</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3573299244271733</v>
+        <v>0.3544564083750731</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001498860971416542</v>
+        <v>0.03232528607964257</v>
       </c>
       <c r="H9" t="n">
-        <v>0.298457651558558</v>
+        <v>0.3034483090021435</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006097835567042356</v>
+        <v>0.006067229429039096</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002553058447729379</v>
+        <v>0.0001661384591889294</v>
       </c>
       <c r="K9" t="n">
-        <v>2.987408529722597e-05</v>
+        <v>0.0003915917207214847</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003938298677226918</v>
+        <v>0.0006390229995586527</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01756692611295486</v>
+        <v>0.02122568473266758</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0003712681178713729</v>
+        <v>0.0003396388271706057</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01491736648195221</v>
+        <v>0.0151316275659833</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02081585658817359</v>
+        <v>0.02076910443485724</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1398377142087591</v>
+        <v>0.1560565729247283</v>
       </c>
       <c r="R9" t="n">
-        <v>2.286044781471458e-05</v>
+        <v>3.517070810015628e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0801645238669757</v>
+        <v>0.08776944756994338</v>
       </c>
       <c r="T9" t="n">
-        <v>0.003404225035672358</v>
+        <v>0.006437244565317383</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01459154406159266</v>
+        <v>0.01106904477303982</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02840175496830509</v>
+        <v>0.0173979227227725</v>
       </c>
       <c r="W9" t="n">
-        <v>7.641757955577312e-05</v>
+        <v>0.02869725405844033</v>
       </c>
       <c r="X9" t="n">
-        <v>0.003764209961233911</v>
+        <v>0.007746537549844757</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01703212961557747</v>
+        <v>0.02095894780757758</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01185714891334722</v>
+        <v>0.009763466303287985</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.3274723881655299</v>
+        <v>0.3512357267630526</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.3001863417011449</v>
+        <v>0.3013183495559426</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0137584789903887</v>
+        <v>0.01038666187135956</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1089581020143566</v>
+        <v>0.1044265698206811</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.00250551017337174</v>
+        <v>0.002195474365401369</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.001644946664331447</v>
+        <v>0.0004273689948182277</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.01703726881776392</v>
+        <v>0.01706149842306555</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.07042831373857887</v>
+        <v>0.07552554442576555</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.01726006208358724</v>
+        <v>0.01923257941912112</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.1166361521547349</v>
+        <v>0.1053886437069592</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.005329357819600518</v>
+        <v>0.002631941382552487</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.08675004839979901</v>
+        <v>0.08346407426396268</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.001081703280080552</v>
+        <v>0.001576549281860704</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.136143647947409</v>
+        <v>0.1233030296293166</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.01178873385899619</v>
+        <v>0.01174163525387755</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.001023932244258111</v>
+        <v>0.003545638581152277</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.04619489056696987</v>
+        <v>0.03294573866220796</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.2411179982681225</v>
+        <v>0.2416237311252423</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.01652654995608233</v>
+        <v>0.01315947933878273</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.2317842214615036</v>
+        <v>0.2320458999048243</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.01628047645913572</v>
+        <v>0.1058872494251842</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0181573304790569</v>
+        <v>0.01912621855441521</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.2908851185377865</v>
+        <v>0.2905667800727688</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.001828629954299343</v>
+        <v>0.0008138770088108483</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.3195249692466527</v>
+        <v>0.3051006099403523</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.1072308639788531</v>
+        <v>0.09883173206830927</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.2023082197708236</v>
+        <v>0.1966433296889573</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.2104328562501114</v>
+        <v>0.1992752796776931</v>
       </c>
       <c r="BC9" t="n">
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.08235837694404251</v>
+        <v>0.08152474050026627</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.04331482709118249</v>
+        <v>0.03672974605705738</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.1850593308967712</v>
+        <v>0.1757699847169357</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.22187302178135</v>
+        <v>0.2208175333603681</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.04275013604968288</v>
+        <v>0.04869307368983188</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.2696960813777263</v>
+        <v>0.2711854503858441</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.91904588625152</v>
+        <v>0.9318311177649391</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.02063347978009985</v>
+        <v>0.02066537673094643</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.1448760328901049</v>
+        <v>0.1767855856778577</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.4780577764354217</v>
+        <v>0.4782407309127421</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.0007968265629080156</v>
+        <v>0.001037381277823779</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.2050071592240228</v>
+        <v>0.1308845044023023</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.04416148528426753</v>
+        <v>0.04399215456193629</v>
       </c>
       <c r="BQ9" t="n">
         <v>0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.1458895211951076</v>
+        <v>0.1367977980077323</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.05993623510921438</v>
+        <v>0.04403182377434248</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.04561434497622673</v>
+        <v>0.04372914517550969</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.03017773640817204</v>
+        <v>0.02949540406540344</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.07083926756802879</v>
+        <v>0.0812007858040739</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.05669992652142073</v>
+        <v>0.06003479604551702</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.07869481947424788</v>
+        <v>0.06463660789345235</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.04038989832895168</v>
+        <v>0.04209989347424318</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.0882447653419063</v>
+        <v>0.08021343045394005</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.07636117319694345</v>
+        <v>0.07529779737601684</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.003497125590273915</v>
+        <v>0.003494479228312281</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.3934639798702473</v>
+        <v>0.3946789806988902</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.2394279514703422</v>
+        <v>0.2394331107554189</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.007646037539443962</v>
+        <v>0.007746997838589698</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.03921816790445486</v>
+        <v>0.03926249346673799</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.01029299348517784</v>
+        <v>0.01880818813019752</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.3437720262903445</v>
+        <v>0.2983993157506392</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.005350852787028652</v>
+        <v>0.006559821113769718</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.01960669098369739</v>
+        <v>0.01994553320565939</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.01623665340257344</v>
+        <v>0.01637241309493067</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.0003060674514931281</v>
+        <v>1.902132877934871e-05</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.01461730096817473</v>
+        <v>0.01349248950820532</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.150751160906641</v>
+        <v>0.1597789167352132</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.1259149151489226</v>
+        <v>0.138243932442468</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.2518829967768463</v>
+        <v>0.2730577503699239</v>
       </c>
       <c r="CR9" t="n">
-        <v>5.753048489656095e-05</v>
+        <v>0.0007881720837970556</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.01744826445537835</v>
+        <v>0.02119475293673625</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.04638173375714136</v>
+        <v>0.03596944909807091</v>
       </c>
       <c r="CU9" t="n">
         <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.001627675834070503</v>
+        <v>0.001601993118247147</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.01496542615380923</v>
+        <v>0.01567715653243392</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.3293393264079964</v>
+        <v>0.318203294319831</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.2672102682895944</v>
+        <v>0.222735780263989</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.003799539023994072</v>
+        <v>0.003388347181222881</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.2455233193576415</v>
+        <v>0.2342941314429643</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.5610473382777198</v>
+        <v>0.5610322042860634</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.2848676043531643</v>
+        <v>0.3512846800170392</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.04008940742304982</v>
+        <v>0.04011715056651603</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.5977596612773333</v>
+        <v>0.5990735013950309</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.0002550276857987275</v>
+        <v>0.01837925064153624</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.009311673158635967</v>
+        <v>0.008682548811214975</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.00970124891956085</v>
+        <v>0.004793704528666481</v>
       </c>
       <c r="DI9" t="n">
         <v>1</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.2996304038201029</v>
+        <v>0.243711272064062</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.008647598585960795</v>
+        <v>0.008567517633230317</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.04486854673719007</v>
+        <v>0.07959469550149489</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.0495685864649988</v>
+        <v>0.05492125901061052</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.01432313073267335</v>
+        <v>0.01220664514070701</v>
       </c>
       <c r="DO9" t="n">
-        <v>6.72826406057366e-05</v>
+        <v>7.655400309060286e-06</v>
       </c>
       <c r="DP9" t="n">
-        <v>4.045357905054384e-06</v>
+        <v>0.001293591888247002</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.03380444661322572</v>
+        <v>0.0315082444781018</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.02144717436027559</v>
+        <v>0.02177683641340064</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.2715164556366726</v>
+        <v>0.2584592061110818</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.0609653855315981</v>
+        <v>0.05982749393180566</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.1257977025435903</v>
+        <v>0.1223851998047894</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.2106756075596172</v>
+        <v>0.2096756737877601</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.02011285869830223</v>
+        <v>0.02031560774183892</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.03016718810165459</v>
+        <v>0.02913302708685293</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.003314935501121611</v>
+        <v>0.003323192802933934</v>
       </c>
       <c r="DZ9" t="n">
-        <v>1.324375733371069e-06</v>
+        <v>0.0006278663657635677</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.0540272794344626</v>
+        <v>0.0678473766233469</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.002268225024976124</v>
+        <v>0.002385321930559408</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.2929516789976513</v>
+        <v>0.2913332945410407</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.238732007655093</v>
+        <v>0.04891369605081895</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.8237962239906964</v>
+        <v>0.8323631455687164</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.2200443605850328</v>
+        <v>0.1583039177005189</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.1702882294675304</v>
+        <v>0.1626036279003064</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.06629933090555383</v>
+        <v>0.09144138386517937</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.0971870568634436</v>
+        <v>0.09017102183556495</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.0001286764368879497</v>
+        <v>0.0001680081553556781</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.001375335873439896</v>
+        <v>0.001370525415365686</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.1494604039210957</v>
+        <v>0.2083725852358864</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.003783022327344451</v>
+        <v>0.006990267174276864</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.01908965859924796</v>
+        <v>0.01900748391023639</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.01524393610637557</v>
+        <v>0.01744383844671683</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.05925108696806705</v>
+        <v>0.06844948270374811</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.0006897116292836987</v>
+        <v>0.0008374240258305424</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.005400780820601279</v>
+        <v>0.004298388412066239</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.07997410381589737</v>
+        <v>0.06417148728553203</v>
       </c>
       <c r="ET9" t="n">
-        <v>0.06318967050567206</v>
+        <v>0.06418637121375551</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.01901800497753597</v>
+        <v>0.01887170058353627</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.008737464398048305</v>
+        <v>0.01149363702494312</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.003016356612940497</v>
+        <v>0.004019053877540446</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.01200550046456912</v>
+        <v>0.01377181520473852</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.002602064030233389</v>
+        <v>0.0009429636633517244</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.01050315659080895</v>
+        <v>0.005671483498968228</v>
       </c>
       <c r="FA9" t="n">
-        <v>0.001672683201966028</v>
+        <v>0.005524274808746344</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.1614314135775692</v>
+        <v>0.1910139637651623</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.02454721683284351</v>
+        <v>0.01984541352476828</v>
       </c>
       <c r="FD9" t="n">
-        <v>0.1085835152618694</v>
+        <v>0.1144764699355162</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.03379745681564101</v>
+        <v>0.02849545695731221</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.007388109240013506</v>
+        <v>0.01107187802518618</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.01001208426588824</v>
+        <v>0.009740380958056698</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.009841399776178832</v>
+        <v>0.0068138031938459</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.09117637065106955</v>
+        <v>0.08644693361503766</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.2048508871441404</v>
+        <v>0.2087404456708618</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.1458663456661841</v>
+        <v>0.1321981963431622</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.01261623806081003</v>
+        <v>0.01187117403477938</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.2154702867958239</v>
+        <v>0.0841192127566589</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.1928184630317407</v>
+        <v>0.1460088800286161</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.05122857867939919</v>
+        <v>0.04423555094763106</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.2240614737756477</v>
+        <v>0.2083864529926475</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.009806305109724084</v>
+        <v>0.01176255415305981</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.01069005595093249</v>
+        <v>0.011141587918165</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.06896412319531831</v>
+        <v>0.0685734010109972</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.01368401447869658</v>
+        <v>0.01543826106859092</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.01147560177464341</v>
+        <v>0.007804175269451278</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.02213507959780665</v>
+        <v>0.02704199758312456</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.06727539192739612</v>
+        <v>0.1018942017729785</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.08003510306274575</v>
+        <v>0.1013854692424203</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.03356012160105225</v>
+        <v>0.03355352652976695</v>
       </c>
       <c r="FZ9" t="n">
-        <v>6.826077653390668e-05</v>
+        <v>0.01410809851149585</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.01167837179437852</v>
+        <v>0.01560452374572118</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.1417376181002086</v>
+        <v>0.1412559336699011</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.02889398427645014</v>
+        <v>0.03601044263128186</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.02165482463359317</v>
+        <v>0.02540339397338341</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.08551389739743924</v>
+        <v>0.08600490496379694</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.007027190599047351</v>
+        <v>0.007535650178679341</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.001203991204820657</v>
+        <v>0.0007999108790604156</v>
       </c>
       <c r="GH9" t="n">
-        <v>0.0166082511556341</v>
+        <v>0.01811727293346065</v>
       </c>
       <c r="GI9" t="n">
-        <v>0.04752293620824927</v>
+        <v>0.03721883155573911</v>
       </c>
       <c r="GJ9" t="n">
-        <v>0.09681474564323712</v>
+        <v>0.09108476722322664</v>
       </c>
       <c r="GK9" t="n">
-        <v>0.01263745247020705</v>
+        <v>0.02738931698207526</v>
       </c>
       <c r="GL9" t="n">
-        <v>0.09193571454151062</v>
+        <v>0.09236532348543058</v>
       </c>
       <c r="GM9" t="n">
-        <v>0.001990346071450437</v>
+        <v>0.00243088229115353</v>
       </c>
       <c r="GN9" t="n">
-        <v>0.001389854651033989</v>
+        <v>0.00114844775975821</v>
       </c>
       <c r="GO9" t="n">
-        <v>0.03911546718212762</v>
+        <v>0.04169580477832731</v>
       </c>
       <c r="GP9" t="n">
-        <v>0.0006406966083609659</v>
+        <v>6.804421887777516e-05</v>
       </c>
       <c r="GQ9" t="n">
-        <v>0.00758255176342196</v>
+        <v>0.01152643062868289</v>
       </c>
       <c r="GR9" t="n">
-        <v>0.007699678068325021</v>
+        <v>0.01162808825159889</v>
       </c>
       <c r="GS9" t="n">
-        <v>0.01050229333159949</v>
+        <v>0.004152154357429805</v>
       </c>
       <c r="GT9" t="n">
-        <v>0.01034527600717628</v>
+        <v>0.01182153127416395</v>
       </c>
       <c r="GU9" t="n">
-        <v>0.002542224901972547</v>
+        <v>0.002066580778703882</v>
       </c>
       <c r="GV9" t="n">
-        <v>0.006296669444394025</v>
+        <v>0.003502911507490349</v>
       </c>
       <c r="GW9" t="n">
-        <v>0.02722177318803806</v>
+        <v>0.02957959384778754</v>
       </c>
       <c r="GX9" t="n">
-        <v>0.001404606359625042</v>
+        <v>0.0003626187640348342</v>
       </c>
       <c r="GY9" t="n">
-        <v>0.0003584361453521612</v>
+        <v>0.001196282274751339</v>
       </c>
       <c r="GZ9" t="n">
-        <v>2.920371094797954e-05</v>
+        <v>0.0002212150783127846</v>
       </c>
       <c r="HA9" t="n">
-        <v>0.001675653840862367</v>
+        <v>0.00177430924314163</v>
       </c>
       <c r="HB9" t="n">
-        <v>0.06657838877354864</v>
+        <v>0.06390114794059035</v>
       </c>
       <c r="HC9" t="n">
-        <v>0.01363948579560751</v>
+        <v>0.01337883653657668</v>
       </c>
       <c r="HD9" t="n">
-        <v>0.01585385645391911</v>
+        <v>0.01584199086659917</v>
       </c>
       <c r="HE9" t="n">
-        <v>1.278095802954721e-06</v>
+        <v>0.0001369089985557298</v>
       </c>
       <c r="HF9" t="n">
-        <v>0.002609424828424191</v>
+        <v>0.007721969017915374</v>
       </c>
       <c r="HG9" t="n">
-        <v>0.002195908412549476</v>
+        <v>0.002008898933187969</v>
       </c>
       <c r="HH9" t="n">
-        <v>0.0001899789668412811</v>
+        <v>0.0006108349413275085</v>
       </c>
       <c r="HI9" t="n">
-        <v>0.004620969599255772</v>
+        <v>0.0003139480471945485</v>
       </c>
       <c r="HJ9" t="n">
-        <v>0.2985598757257337</v>
+        <v>0.3005310812505946</v>
       </c>
       <c r="HK9" t="n">
-        <v>0.01082958743798517</v>
+        <v>0.01349503642827923</v>
       </c>
       <c r="HL9" t="n">
-        <v>0.0004309529462030033</v>
+        <v>0.001604939305851445</v>
       </c>
       <c r="HM9" t="n">
-        <v>0.004363080535574763</v>
+        <v>0.003541444992790477</v>
       </c>
       <c r="HN9" t="n">
-        <v>0.02479917680906311</v>
+        <v>0.02562210683267965</v>
       </c>
       <c r="HO9" t="n">
-        <v>0.004115197592276074</v>
+        <v>0.002900539760096755</v>
       </c>
       <c r="HP9" t="n">
-        <v>0.2074111440669093</v>
+        <v>0.2037549825305966</v>
       </c>
       <c r="HQ9" t="n">
-        <v>0.1040210992892299</v>
+        <v>0.08587772845738059</v>
       </c>
       <c r="HR9" t="n">
-        <v>0.3422952203783384</v>
+        <v>0.2615666853996584</v>
       </c>
       <c r="HS9" t="n">
-        <v>0.1957951642018132</v>
+        <v>0.1647809325866404</v>
       </c>
       <c r="HT9" t="n">
-        <v>0.0362581275322713</v>
+        <v>0.04851988286755812</v>
       </c>
       <c r="HU9" t="n">
-        <v>0.08472884292931662</v>
+        <v>0.08844243233888527</v>
       </c>
       <c r="HV9" t="n">
-        <v>0.01958470469237404</v>
+        <v>0.003680401154643157</v>
       </c>
       <c r="HW9" t="n">
-        <v>0.01625556976036922</v>
+        <v>0.01641967698558601</v>
       </c>
       <c r="HX9" t="n">
-        <v>0.005523099312718108</v>
+        <v>0.003732959439546637</v>
       </c>
       <c r="HY9" t="n">
-        <v>0.006162267951051886</v>
+        <v>0.006123193158226362</v>
       </c>
       <c r="HZ9" t="n">
-        <v>0.0343301503206602</v>
+        <v>0.04418240969559406</v>
       </c>
       <c r="IA9" t="n">
-        <v>0.001322414607389354</v>
+        <v>0.001372127232456538</v>
       </c>
       <c r="IB9" t="n">
-        <v>0.03904292640992107</v>
+        <v>0.01950964695464004</v>
       </c>
       <c r="IC9" t="n">
-        <v>0.07146139360502192</v>
+        <v>0.06145286503461241</v>
       </c>
       <c r="ID9" t="n">
-        <v>0.00266081083770709</v>
+        <v>7.157930092011751e-07</v>
       </c>
       <c r="IE9" t="n">
-        <v>0.00084504182468883</v>
+        <v>0.001159053666514689</v>
       </c>
     </row>
     <row r="10">
